--- a/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.46360339348596</v>
+        <v>21.46360339348613</v>
       </c>
       <c r="C2">
-        <v>15.15721471583763</v>
+        <v>15.15721471583771</v>
       </c>
       <c r="D2">
-        <v>6.264700638665982</v>
+        <v>6.264700638666093</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.40771800750979</v>
+        <v>63.40771800751038</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.89628209193816</v>
+        <v>30.89628209193822</v>
       </c>
       <c r="J2">
-        <v>19.0706053991362</v>
+        <v>19.0706053991363</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.82185929238603</v>
+        <v>19.82185929238612</v>
       </c>
       <c r="C3">
-        <v>14.00177755682751</v>
+        <v>14.00177755682749</v>
       </c>
       <c r="D3">
-        <v>6.006563121326707</v>
+        <v>6.006563121326723</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.24491833050399</v>
+        <v>59.24491833050418</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.38922905929966</v>
+        <v>28.38922905929972</v>
       </c>
       <c r="J3">
-        <v>17.63913249530733</v>
+        <v>17.63913249530738</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7758708859944</v>
+        <v>18.7758708859943</v>
       </c>
       <c r="C4">
-        <v>13.26879049811004</v>
+        <v>13.26879049811001</v>
       </c>
       <c r="D4">
-        <v>5.851861493651774</v>
+        <v>5.851861493651827</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.63601122765311</v>
+        <v>56.63601122765313</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.81384215636803</v>
+        <v>26.8138421563681</v>
       </c>
       <c r="J4">
-        <v>16.72776073048928</v>
+        <v>16.72776073048919</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33950806445896</v>
+        <v>18.33950806445898</v>
       </c>
       <c r="C5">
-        <v>12.96367107162927</v>
+        <v>12.96367107162932</v>
       </c>
       <c r="D5">
-        <v>5.78945277769127</v>
+        <v>5.789452777691529</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.5588056541672</v>
+        <v>55.55880565416737</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.1612154211975</v>
+        <v>26.1612154211976</v>
       </c>
       <c r="J5">
-        <v>16.34767688946327</v>
+        <v>16.3476768894633</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2664244085871</v>
+        <v>18.26642440858734</v>
       </c>
       <c r="C6">
-        <v>12.91260517211919</v>
+        <v>12.91260517211905</v>
       </c>
       <c r="D6">
-        <v>5.779119812410906</v>
+        <v>5.779119812410752</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.37907353698828</v>
+        <v>55.37907353698872</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.05216330885083</v>
+        <v>26.05216330885093</v>
       </c>
       <c r="J6">
-        <v>16.28402507639096</v>
+        <v>16.28402507639111</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77002758840241</v>
+        <v>18.77002758840243</v>
       </c>
       <c r="C7">
-        <v>13.26470215748108</v>
+        <v>13.26470215748117</v>
       </c>
       <c r="D7">
-        <v>5.851017645407445</v>
+        <v>5.851017645407182</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.62154125523274</v>
+        <v>56.62154125523258</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.80508559058551</v>
+        <v>26.80508559058545</v>
       </c>
       <c r="J7">
-        <v>16.72267063301957</v>
+        <v>16.72267063301959</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.9050337110748</v>
+        <v>20.90503371107479</v>
       </c>
       <c r="C8">
-        <v>14.76337902663995</v>
+        <v>14.76337902664012</v>
       </c>
       <c r="D8">
-        <v>6.174693811893342</v>
+        <v>6.174693811893166</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.9827905860253</v>
+        <v>61.98279058602537</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>30.03828658083055</v>
       </c>
       <c r="J8">
-        <v>18.58341832162212</v>
+        <v>18.58341832162218</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.82235480507867</v>
+        <v>24.82235480507871</v>
       </c>
       <c r="C9">
-        <v>17.54338973854557</v>
+        <v>17.54338973854569</v>
       </c>
       <c r="D9">
-        <v>6.858197006570562</v>
+        <v>6.858197006570631</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.13497900950003</v>
+        <v>72.13497900950019</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.18355062942592</v>
+        <v>36.18355062942609</v>
       </c>
       <c r="J9">
-        <v>22.00448729563967</v>
+        <v>22.00448729563974</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.59383478631766</v>
+        <v>27.59383478631762</v>
       </c>
       <c r="C10">
-        <v>19.54022782553147</v>
+        <v>19.54022782553146</v>
       </c>
       <c r="D10">
-        <v>7.426165114261854</v>
+        <v>7.426165114261971</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.55728497701836</v>
+        <v>79.55728497701858</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>40.75400522195532</v>
+        <v>40.7540052219553</v>
       </c>
       <c r="J10">
-        <v>24.43274903857289</v>
+        <v>24.43274903857294</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.85043482348624</v>
+        <v>28.85043482348644</v>
       </c>
       <c r="C11">
-        <v>20.4557748044402</v>
+        <v>20.45577480444031</v>
       </c>
       <c r="D11">
-        <v>7.711658919101623</v>
+        <v>7.71165891910148</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>83.04605893233324</v>
+        <v>83.04605893233351</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.90685793598513</v>
+        <v>42.90685793598518</v>
       </c>
       <c r="J11">
-        <v>25.53658209193947</v>
+        <v>25.53658209193963</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.32801825750153</v>
+        <v>29.32801825750158</v>
       </c>
       <c r="C12">
-        <v>20.80563460734438</v>
+        <v>20.80563460734416</v>
       </c>
       <c r="D12">
-        <v>7.82536370689386</v>
+        <v>7.825363706894005</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>84.37678321773588</v>
+        <v>84.376783217736</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>43.74080455764693</v>
+        <v>43.74080455764689</v>
       </c>
       <c r="J12">
-        <v>25.95665029468865</v>
+        <v>25.95665029468873</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.22503754332602</v>
+        <v>29.2250375433261</v>
       </c>
       <c r="C13">
-        <v>20.73010190553513</v>
+        <v>20.73010190553516</v>
       </c>
       <c r="D13">
-        <v>7.800590928214617</v>
+        <v>7.800590928214869</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>84.08962404580825</v>
+        <v>84.08962404580859</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.56019696692102</v>
+        <v>43.56019696692113</v>
       </c>
       <c r="J13">
-        <v>25.86604459240237</v>
+        <v>25.86604459240244</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.88967441197473</v>
+        <v>28.88967441197493</v>
       </c>
       <c r="C14">
-        <v>20.48447928582216</v>
+        <v>20.48447928582215</v>
       </c>
       <c r="D14">
-        <v>7.720888848852954</v>
+        <v>7.720888848852914</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>83.15529780243287</v>
+        <v>83.15529780243335</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.97503247705763</v>
+        <v>42.97503247705784</v>
       </c>
       <c r="J14">
-        <v>25.57108420889346</v>
+        <v>25.5710842088936</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.68456574509175</v>
+        <v>28.68456574509172</v>
       </c>
       <c r="C15">
-        <v>20.33451795833387</v>
+        <v>20.3345179583338</v>
       </c>
       <c r="D15">
-        <v>7.672860979119411</v>
+        <v>7.672860979119307</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>82.58449106161878</v>
+        <v>82.58449106161865</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.61934175129811</v>
+        <v>42.61934175129809</v>
       </c>
       <c r="J15">
-        <v>25.39076162369091</v>
+        <v>25.39076162369088</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.51180952732872</v>
+        <v>27.51180952732871</v>
       </c>
       <c r="C16">
-        <v>19.48070299871837</v>
+        <v>19.48070299871828</v>
       </c>
       <c r="D16">
-        <v>7.408181808911019</v>
+        <v>7.408181808911064</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>79.33020778596408</v>
+        <v>79.33020778596384</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>40.61541041353787</v>
+        <v>40.61541041353795</v>
       </c>
       <c r="J16">
-        <v>24.36076347309634</v>
+        <v>24.36076347309632</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.79270365981816</v>
+        <v>26.79270365981809</v>
       </c>
       <c r="C17">
-        <v>18.96003081766198</v>
+        <v>18.96003081766199</v>
       </c>
       <c r="D17">
-        <v>7.253750313578895</v>
+        <v>7.253750313578807</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.36076868636393</v>
+        <v>77.36076868636343</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>39.40970584888517</v>
+        <v>39.40970584888506</v>
       </c>
       <c r="J17">
-        <v>23.73000478907984</v>
+        <v>23.73000478907981</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.37852354348673</v>
+        <v>26.37852354348691</v>
       </c>
       <c r="C18">
-        <v>18.66106619281645</v>
+        <v>18.66106619281635</v>
       </c>
       <c r="D18">
-        <v>7.167345770369564</v>
+        <v>7.167345770369549</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.25662962253608</v>
+        <v>76.25662962253595</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.72252306692642</v>
+        <v>38.72252306692631</v>
       </c>
       <c r="J18">
-        <v>23.36696752029203</v>
+        <v>23.36696752029209</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.23813356365662</v>
+        <v>26.23813356365655</v>
       </c>
       <c r="C19">
-        <v>18.55987738847072</v>
+        <v>18.55987738847049</v>
       </c>
       <c r="D19">
-        <v>7.138465794508299</v>
+        <v>7.138465794508321</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.88302862024592</v>
+        <v>75.88302862024608</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.49074362470213</v>
+        <v>38.49074362470209</v>
       </c>
       <c r="J19">
-        <v>23.24395375250251</v>
+        <v>23.24395375250245</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.8692984274878</v>
+        <v>26.86929842748791</v>
       </c>
       <c r="C20">
-        <v>19.01539134590684</v>
+        <v>19.0153913459069</v>
       </c>
       <c r="D20">
-        <v>7.269929296851894</v>
+        <v>7.269929296851774</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.56527030226738</v>
+        <v>77.56527030226751</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>39.53735450804054</v>
       </c>
       <c r="J20">
-        <v>23.79716184490924</v>
+        <v>23.79716184490934</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.98810833904519</v>
+        <v>28.98810833904509</v>
       </c>
       <c r="C21">
-        <v>20.55651745749604</v>
+        <v>20.55651745749585</v>
       </c>
       <c r="D21">
-        <v>7.744130035478982</v>
+        <v>7.744130035479216</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>83.42940440910751</v>
+        <v>83.42940440910739</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.14631848367386</v>
+        <v>43.14631848367388</v>
       </c>
       <c r="J21">
-        <v>25.6576432457245</v>
+        <v>25.65764324572433</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.38486264045003</v>
+        <v>30.38486264044994</v>
       </c>
       <c r="C22">
-        <v>21.58389279605593</v>
+        <v>21.58389279605586</v>
       </c>
       <c r="D22">
-        <v>8.088116006948377</v>
+        <v>8.088116006948324</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>87.33050768238057</v>
+        <v>87.33050768238036</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.62100613156239</v>
+        <v>45.62100613156214</v>
       </c>
       <c r="J22">
-        <v>26.8874012057181</v>
+        <v>26.88740120571804</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.63724822756563</v>
+        <v>29.63724822756578</v>
       </c>
       <c r="C23">
-        <v>21.03275843775881</v>
+        <v>21.03275843775866</v>
       </c>
       <c r="D23">
-        <v>7.900614971130021</v>
+        <v>7.900614971129949</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>85.23977131219172</v>
+        <v>85.23977131219226</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.28581611870217</v>
+        <v>44.28581611870241</v>
       </c>
       <c r="J23">
-        <v>26.22881220829252</v>
+        <v>26.2288122082926</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.83467245180354</v>
+        <v>26.8346724518035</v>
       </c>
       <c r="C24">
-        <v>18.99036182518837</v>
+        <v>18.99036182518828</v>
       </c>
       <c r="D24">
-        <v>7.262607480640766</v>
+        <v>7.26260748064064</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.47280992185424</v>
+        <v>77.47280992185361</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>39.47962643728699</v>
+        <v>39.47962643728692</v>
       </c>
       <c r="J24">
-        <v>23.7668015553239</v>
+        <v>23.76680155532383</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.78637954954775</v>
+        <v>23.7863795495478</v>
       </c>
       <c r="C25">
-        <v>16.80384666767187</v>
+        <v>16.80384666767184</v>
       </c>
       <c r="D25">
-        <v>6.665004052493112</v>
+        <v>6.665004052493076</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.41664392213283</v>
+        <v>69.41664392213298</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.52708476081381</v>
+        <v>34.52708476081383</v>
       </c>
       <c r="J25">
-        <v>21.0986608432319</v>
+        <v>21.09866084323192</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.46360339348613</v>
+        <v>21.46360339348596</v>
       </c>
       <c r="C2">
-        <v>15.15721471583771</v>
+        <v>15.15721471583763</v>
       </c>
       <c r="D2">
-        <v>6.264700638666093</v>
+        <v>6.264700638665982</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.40771800751038</v>
+        <v>63.40771800750979</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.89628209193822</v>
+        <v>30.89628209193816</v>
       </c>
       <c r="J2">
-        <v>19.0706053991363</v>
+        <v>19.0706053991362</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.82185929238612</v>
+        <v>19.82185929238603</v>
       </c>
       <c r="C3">
-        <v>14.00177755682749</v>
+        <v>14.00177755682751</v>
       </c>
       <c r="D3">
-        <v>6.006563121326723</v>
+        <v>6.006563121326707</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.24491833050418</v>
+        <v>59.24491833050399</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.38922905929972</v>
+        <v>28.38922905929966</v>
       </c>
       <c r="J3">
-        <v>17.63913249530738</v>
+        <v>17.63913249530733</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7758708859943</v>
+        <v>18.7758708859944</v>
       </c>
       <c r="C4">
-        <v>13.26879049811001</v>
+        <v>13.26879049811004</v>
       </c>
       <c r="D4">
-        <v>5.851861493651827</v>
+        <v>5.851861493651774</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.63601122765313</v>
+        <v>56.63601122765311</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.8138421563681</v>
+        <v>26.81384215636803</v>
       </c>
       <c r="J4">
-        <v>16.72776073048919</v>
+        <v>16.72776073048928</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33950806445898</v>
+        <v>18.33950806445896</v>
       </c>
       <c r="C5">
-        <v>12.96367107162932</v>
+        <v>12.96367107162927</v>
       </c>
       <c r="D5">
-        <v>5.789452777691529</v>
+        <v>5.78945277769127</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.55880565416737</v>
+        <v>55.5588056541672</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.1612154211976</v>
+        <v>26.1612154211975</v>
       </c>
       <c r="J5">
-        <v>16.3476768894633</v>
+        <v>16.34767688946327</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.26642440858734</v>
+        <v>18.2664244085871</v>
       </c>
       <c r="C6">
-        <v>12.91260517211905</v>
+        <v>12.91260517211919</v>
       </c>
       <c r="D6">
-        <v>5.779119812410752</v>
+        <v>5.779119812410906</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.37907353698872</v>
+        <v>55.37907353698828</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.05216330885093</v>
+        <v>26.05216330885083</v>
       </c>
       <c r="J6">
-        <v>16.28402507639111</v>
+        <v>16.28402507639096</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77002758840243</v>
+        <v>18.77002758840241</v>
       </c>
       <c r="C7">
-        <v>13.26470215748117</v>
+        <v>13.26470215748108</v>
       </c>
       <c r="D7">
-        <v>5.851017645407182</v>
+        <v>5.851017645407445</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.62154125523258</v>
+        <v>56.62154125523274</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.80508559058545</v>
+        <v>26.80508559058551</v>
       </c>
       <c r="J7">
-        <v>16.72267063301959</v>
+        <v>16.72267063301957</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.90503371107479</v>
+        <v>20.9050337110748</v>
       </c>
       <c r="C8">
-        <v>14.76337902664012</v>
+        <v>14.76337902663995</v>
       </c>
       <c r="D8">
-        <v>6.174693811893166</v>
+        <v>6.174693811893342</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.98279058602537</v>
+        <v>61.9827905860253</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>30.03828658083055</v>
       </c>
       <c r="J8">
-        <v>18.58341832162218</v>
+        <v>18.58341832162212</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.82235480507871</v>
+        <v>24.82235480507867</v>
       </c>
       <c r="C9">
-        <v>17.54338973854569</v>
+        <v>17.54338973854557</v>
       </c>
       <c r="D9">
-        <v>6.858197006570631</v>
+        <v>6.858197006570562</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.13497900950019</v>
+        <v>72.13497900950003</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.18355062942609</v>
+        <v>36.18355062942592</v>
       </c>
       <c r="J9">
-        <v>22.00448729563974</v>
+        <v>22.00448729563967</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.59383478631762</v>
+        <v>27.59383478631766</v>
       </c>
       <c r="C10">
-        <v>19.54022782553146</v>
+        <v>19.54022782553147</v>
       </c>
       <c r="D10">
-        <v>7.426165114261971</v>
+        <v>7.426165114261854</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.55728497701858</v>
+        <v>79.55728497701836</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>40.7540052219553</v>
+        <v>40.75400522195532</v>
       </c>
       <c r="J10">
-        <v>24.43274903857294</v>
+        <v>24.43274903857289</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.85043482348644</v>
+        <v>28.85043482348624</v>
       </c>
       <c r="C11">
-        <v>20.45577480444031</v>
+        <v>20.4557748044402</v>
       </c>
       <c r="D11">
-        <v>7.71165891910148</v>
+        <v>7.711658919101623</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>83.04605893233351</v>
+        <v>83.04605893233324</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.90685793598518</v>
+        <v>42.90685793598513</v>
       </c>
       <c r="J11">
-        <v>25.53658209193963</v>
+        <v>25.53658209193947</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.32801825750158</v>
+        <v>29.32801825750153</v>
       </c>
       <c r="C12">
-        <v>20.80563460734416</v>
+        <v>20.80563460734438</v>
       </c>
       <c r="D12">
-        <v>7.825363706894005</v>
+        <v>7.82536370689386</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>84.376783217736</v>
+        <v>84.37678321773588</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>43.74080455764689</v>
+        <v>43.74080455764693</v>
       </c>
       <c r="J12">
-        <v>25.95665029468873</v>
+        <v>25.95665029468865</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.2250375433261</v>
+        <v>29.22503754332602</v>
       </c>
       <c r="C13">
-        <v>20.73010190553516</v>
+        <v>20.73010190553513</v>
       </c>
       <c r="D13">
-        <v>7.800590928214869</v>
+        <v>7.800590928214617</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>84.08962404580859</v>
+        <v>84.08962404580825</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.56019696692113</v>
+        <v>43.56019696692102</v>
       </c>
       <c r="J13">
-        <v>25.86604459240244</v>
+        <v>25.86604459240237</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.88967441197493</v>
+        <v>28.88967441197473</v>
       </c>
       <c r="C14">
-        <v>20.48447928582215</v>
+        <v>20.48447928582216</v>
       </c>
       <c r="D14">
-        <v>7.720888848852914</v>
+        <v>7.720888848852954</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>83.15529780243335</v>
+        <v>83.15529780243287</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.97503247705784</v>
+        <v>42.97503247705763</v>
       </c>
       <c r="J14">
-        <v>25.5710842088936</v>
+        <v>25.57108420889346</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.68456574509172</v>
+        <v>28.68456574509175</v>
       </c>
       <c r="C15">
-        <v>20.3345179583338</v>
+        <v>20.33451795833387</v>
       </c>
       <c r="D15">
-        <v>7.672860979119307</v>
+        <v>7.672860979119411</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>82.58449106161865</v>
+        <v>82.58449106161878</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.61934175129809</v>
+        <v>42.61934175129811</v>
       </c>
       <c r="J15">
-        <v>25.39076162369088</v>
+        <v>25.39076162369091</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.51180952732871</v>
+        <v>27.51180952732872</v>
       </c>
       <c r="C16">
-        <v>19.48070299871828</v>
+        <v>19.48070299871837</v>
       </c>
       <c r="D16">
-        <v>7.408181808911064</v>
+        <v>7.408181808911019</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>79.33020778596384</v>
+        <v>79.33020778596408</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>40.61541041353795</v>
+        <v>40.61541041353787</v>
       </c>
       <c r="J16">
-        <v>24.36076347309632</v>
+        <v>24.36076347309634</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.79270365981809</v>
+        <v>26.79270365981816</v>
       </c>
       <c r="C17">
-        <v>18.96003081766199</v>
+        <v>18.96003081766198</v>
       </c>
       <c r="D17">
-        <v>7.253750313578807</v>
+        <v>7.253750313578895</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.36076868636343</v>
+        <v>77.36076868636393</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>39.40970584888506</v>
+        <v>39.40970584888517</v>
       </c>
       <c r="J17">
-        <v>23.73000478907981</v>
+        <v>23.73000478907984</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.37852354348691</v>
+        <v>26.37852354348673</v>
       </c>
       <c r="C18">
-        <v>18.66106619281635</v>
+        <v>18.66106619281645</v>
       </c>
       <c r="D18">
-        <v>7.167345770369549</v>
+        <v>7.167345770369564</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.25662962253595</v>
+        <v>76.25662962253608</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.72252306692631</v>
+        <v>38.72252306692642</v>
       </c>
       <c r="J18">
-        <v>23.36696752029209</v>
+        <v>23.36696752029203</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.23813356365655</v>
+        <v>26.23813356365662</v>
       </c>
       <c r="C19">
-        <v>18.55987738847049</v>
+        <v>18.55987738847072</v>
       </c>
       <c r="D19">
-        <v>7.138465794508321</v>
+        <v>7.138465794508299</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.88302862024608</v>
+        <v>75.88302862024592</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.49074362470209</v>
+        <v>38.49074362470213</v>
       </c>
       <c r="J19">
-        <v>23.24395375250245</v>
+        <v>23.24395375250251</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.86929842748791</v>
+        <v>26.8692984274878</v>
       </c>
       <c r="C20">
-        <v>19.0153913459069</v>
+        <v>19.01539134590684</v>
       </c>
       <c r="D20">
-        <v>7.269929296851774</v>
+        <v>7.269929296851894</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.56527030226751</v>
+        <v>77.56527030226738</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>39.53735450804054</v>
       </c>
       <c r="J20">
-        <v>23.79716184490934</v>
+        <v>23.79716184490924</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.98810833904509</v>
+        <v>28.98810833904519</v>
       </c>
       <c r="C21">
-        <v>20.55651745749585</v>
+        <v>20.55651745749604</v>
       </c>
       <c r="D21">
-        <v>7.744130035479216</v>
+        <v>7.744130035478982</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>83.42940440910739</v>
+        <v>83.42940440910751</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.14631848367388</v>
+        <v>43.14631848367386</v>
       </c>
       <c r="J21">
-        <v>25.65764324572433</v>
+        <v>25.6576432457245</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.38486264044994</v>
+        <v>30.38486264045003</v>
       </c>
       <c r="C22">
-        <v>21.58389279605586</v>
+        <v>21.58389279605593</v>
       </c>
       <c r="D22">
-        <v>8.088116006948324</v>
+        <v>8.088116006948377</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>87.33050768238036</v>
+        <v>87.33050768238057</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.62100613156214</v>
+        <v>45.62100613156239</v>
       </c>
       <c r="J22">
-        <v>26.88740120571804</v>
+        <v>26.8874012057181</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.63724822756578</v>
+        <v>29.63724822756563</v>
       </c>
       <c r="C23">
-        <v>21.03275843775866</v>
+        <v>21.03275843775881</v>
       </c>
       <c r="D23">
-        <v>7.900614971129949</v>
+        <v>7.900614971130021</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>85.23977131219226</v>
+        <v>85.23977131219172</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.28581611870241</v>
+        <v>44.28581611870217</v>
       </c>
       <c r="J23">
-        <v>26.2288122082926</v>
+        <v>26.22881220829252</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.8346724518035</v>
+        <v>26.83467245180354</v>
       </c>
       <c r="C24">
-        <v>18.99036182518828</v>
+        <v>18.99036182518837</v>
       </c>
       <c r="D24">
-        <v>7.26260748064064</v>
+        <v>7.262607480640766</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.47280992185361</v>
+        <v>77.47280992185424</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>39.47962643728692</v>
+        <v>39.47962643728699</v>
       </c>
       <c r="J24">
-        <v>23.76680155532383</v>
+        <v>23.7668015553239</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.7863795495478</v>
+        <v>23.78637954954775</v>
       </c>
       <c r="C25">
-        <v>16.80384666767184</v>
+        <v>16.80384666767187</v>
       </c>
       <c r="D25">
-        <v>6.665004052493076</v>
+        <v>6.665004052493112</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.41664392213298</v>
+        <v>69.41664392213283</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.52708476081383</v>
+        <v>34.52708476081381</v>
       </c>
       <c r="J25">
-        <v>21.09866084323192</v>
+        <v>21.0986608432319</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.46360339348596</v>
+        <v>21.32317170029237</v>
       </c>
       <c r="C2">
-        <v>15.15721471583763</v>
+        <v>14.986466501055</v>
       </c>
       <c r="D2">
-        <v>6.264700638665982</v>
+        <v>6.40939244340748</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.40771800750979</v>
+        <v>63.43869899998546</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.043414780506378</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.89628209193816</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>19.0706053991362</v>
+        <v>30.81132711374552</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.91182794046508</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.82185929238603</v>
+        <v>19.6907505304192</v>
       </c>
       <c r="C3">
-        <v>14.00177755682751</v>
+        <v>13.83680026143681</v>
       </c>
       <c r="D3">
-        <v>6.006563121326707</v>
+        <v>6.154360866135116</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.24491833050399</v>
+        <v>59.3182852415252</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.059788675180434</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.38922905929966</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.63913249530733</v>
+        <v>28.31456673847363</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.486396513606</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7758708859944</v>
+        <v>18.65072090497814</v>
       </c>
       <c r="C4">
-        <v>13.26879049811004</v>
+        <v>13.10726054972061</v>
       </c>
       <c r="D4">
-        <v>5.851861493651774</v>
+        <v>6.001467842388107</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.63601122765311</v>
+        <v>56.7373296366008</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.069865839262498</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.81384215636803</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>16.72776073048928</v>
+        <v>26.74512534341707</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.57865623053126</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33950806445896</v>
+        <v>18.21686148732858</v>
       </c>
       <c r="C5">
-        <v>12.96367107162927</v>
+        <v>12.80352885758403</v>
       </c>
       <c r="D5">
-        <v>5.78945277769127</v>
+        <v>5.939778193860076</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.5588056541672</v>
+        <v>55.67205233284708</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.073989198028877</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.1612154211975</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>16.34767688946327</v>
+        <v>26.09485679140475</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.20004037885848</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2664244085871</v>
+        <v>18.14419852144162</v>
       </c>
       <c r="C6">
-        <v>12.91260517211919</v>
+        <v>12.75269251803295</v>
       </c>
       <c r="D6">
-        <v>5.779119812410906</v>
+        <v>5.929563712763026</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.37907353698828</v>
+        <v>55.49433483328146</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.074675182698885</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.05216330885083</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16.28402507639096</v>
+        <v>25.98619307232117</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.1366317897373</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77002758840241</v>
+        <v>18.64491104394863</v>
       </c>
       <c r="C7">
-        <v>13.26470215748108</v>
+        <v>13.10319098621707</v>
       </c>
       <c r="D7">
-        <v>5.851017645407445</v>
+        <v>6.00063375664697</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.62154125523274</v>
+        <v>56.7230182889321</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.069921366964149</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.80508559058551</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>16.72267063301957</v>
+        <v>26.73640080914456</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.57358597040541</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.9050337110748</v>
+        <v>20.76777797181993</v>
       </c>
       <c r="C8">
-        <v>14.76337902663995</v>
+        <v>14.59464564265978</v>
       </c>
       <c r="D8">
-        <v>6.174693811893342</v>
+        <v>6.320481663751811</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.9827905860253</v>
+        <v>62.0280204913709</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.049062766169517</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.03828658083055</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>18.58341832162212</v>
+        <v>29.9569785086682</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.42674562361508</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.82235480507867</v>
+        <v>24.66232812813398</v>
       </c>
       <c r="C9">
-        <v>17.54338973854557</v>
+        <v>17.35923694972296</v>
       </c>
       <c r="D9">
-        <v>6.858197006570562</v>
+        <v>6.995258154151442</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.13497900950003</v>
+        <v>72.08237494025279</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.007735022077012</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.18355062942592</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>22.00448729563967</v>
+        <v>36.07260609543951</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.83179549713233</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.59383478631766</v>
+        <v>27.4161944902461</v>
       </c>
       <c r="C10">
-        <v>19.54022782553147</v>
+        <v>19.34285351236213</v>
       </c>
       <c r="D10">
-        <v>7.426165114261854</v>
+        <v>7.555097810099169</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.55728497701836</v>
+        <v>79.39316584635901</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.97599091187682</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>40.75400522195532</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>24.43274903857289</v>
+        <v>40.61400742039162</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.24643968352105</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.85043482348624</v>
+        <v>28.66403783254278</v>
       </c>
       <c r="C11">
-        <v>20.4557748044402</v>
+        <v>20.25149914410734</v>
       </c>
       <c r="D11">
-        <v>7.711658919101623</v>
+        <v>7.836105490864596</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>83.04605893233324</v>
+        <v>82.8506891707852</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.960877475355945</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.90685793598513</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>25.53658209193947</v>
+        <v>42.75019619640414</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.34319780286635</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.32801825750153</v>
+        <v>29.13811951499462</v>
       </c>
       <c r="C12">
-        <v>20.80563460734438</v>
+        <v>20.59854626338085</v>
       </c>
       <c r="D12">
-        <v>7.82536370689386</v>
+        <v>7.947933713441651</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>84.37678321773588</v>
+        <v>84.16911856956591</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.955011262134096</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>43.74080455764693</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>25.95665029468865</v>
+        <v>43.57704382404929</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.76038865056186</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.22503754332602</v>
+        <v>29.0359029812111</v>
       </c>
       <c r="C13">
-        <v>20.73010190553513</v>
+        <v>20.52362981258056</v>
       </c>
       <c r="D13">
-        <v>7.800590928214617</v>
+        <v>7.923574477071988</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>84.08962404580825</v>
+        <v>83.88463330453257</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.956281961485975</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.56019696692102</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>25.86604459240237</v>
+        <v>43.39800700641783</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.67041307215432</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.88967441197473</v>
+        <v>28.70299366556364</v>
       </c>
       <c r="C14">
-        <v>20.48447928582216</v>
+        <v>20.27997678568953</v>
       </c>
       <c r="D14">
-        <v>7.720888848852954</v>
+        <v>7.845185114187833</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>83.15529780243287</v>
+        <v>82.95892768828764</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.960398057929325</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.97503247705763</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>25.57108420889346</v>
+        <v>42.81780487308986</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.37746773552566</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.68456574509175</v>
+        <v>28.4993607511102</v>
       </c>
       <c r="C15">
-        <v>20.33451795833387</v>
+        <v>20.13119308162972</v>
       </c>
       <c r="D15">
-        <v>7.672860979119411</v>
+        <v>7.79793557255354</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>82.58449106161878</v>
+        <v>82.39333163194293</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.962898965903922</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.61934175129811</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>25.39076162369091</v>
+        <v>42.46503913138728</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.19835076659307</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.51180952732872</v>
+        <v>27.33472070550029</v>
       </c>
       <c r="C16">
-        <v>19.48070299871837</v>
+        <v>19.28375660861652</v>
       </c>
       <c r="D16">
-        <v>7.408181808911019</v>
+        <v>7.537387147848829</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>79.33020778596408</v>
+        <v>79.16808279424177</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.9769614984816</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>40.61541041353787</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>24.36076347309634</v>
+        <v>40.47641109396219</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.17489351679727</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.79270365981816</v>
+        <v>26.62035894368336</v>
       </c>
       <c r="C17">
-        <v>18.96003081766198</v>
+        <v>18.76673061545041</v>
       </c>
       <c r="D17">
-        <v>7.253750313578895</v>
+        <v>7.385252692146074</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.36076868636393</v>
+        <v>77.25914717554056</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.985388191438474</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>39.40970584888517</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>23.73000478907984</v>
+        <v>39.27905285340142</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.54788228515224</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.37852354348673</v>
+        <v>26.20884378912451</v>
       </c>
       <c r="C18">
-        <v>18.66106619281645</v>
+        <v>18.46978557481518</v>
       </c>
       <c r="D18">
-        <v>7.167345770369564</v>
+        <v>7.300100433921779</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.25662962253608</v>
+        <v>76.16540419987258</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.990175206752803</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.72252306692642</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>23.36696752029203</v>
+        <v>38.59637037471153</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.18692343940963</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.23813356365662</v>
+        <v>26.06934696257241</v>
       </c>
       <c r="C19">
-        <v>18.55987738847072</v>
+        <v>18.36926883062266</v>
       </c>
       <c r="D19">
-        <v>7.138465794508299</v>
+        <v>7.271634027662831</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.88302862024592</v>
+        <v>75.79531225574073</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.991786884022943</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.49074362470213</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>23.24395375250251</v>
+        <v>38.36606942015742</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.06460175922849</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.8692984274878</v>
+        <v>26.69645573226926</v>
       </c>
       <c r="C20">
-        <v>19.01539134590684</v>
+        <v>18.82171143001746</v>
       </c>
       <c r="D20">
-        <v>7.269929296851894</v>
+        <v>7.401194634490025</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.56527030226738</v>
+        <v>77.46171825645068</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.984497625669045</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>39.53735450804054</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>23.79716184490924</v>
+        <v>39.40584569593643</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.61464878667729</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.98810833904519</v>
+        <v>28.80071274202632</v>
       </c>
       <c r="C21">
-        <v>20.55651745749604</v>
+        <v>20.35144263861048</v>
       </c>
       <c r="D21">
-        <v>7.744130035478982</v>
+        <v>7.868046268428033</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>83.42940440910751</v>
+        <v>83.23051738635296</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.959193405797657</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.14631848367386</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>25.6576432457245</v>
+        <v>42.98765801603432</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.46344107012517</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.38486264045003</v>
+        <v>30.18679617081319</v>
       </c>
       <c r="C22">
-        <v>21.58389279605593</v>
+        <v>21.37013683367495</v>
       </c>
       <c r="D22">
-        <v>8.088116006948377</v>
+        <v>8.206125779769359</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>87.33050768238057</v>
+        <v>87.09456203349413</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.941784405799815</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.62100613156239</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>26.8874012057181</v>
+        <v>45.43969314945178</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.68433236754505</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.63724822756563</v>
+        <v>29.44502290480566</v>
       </c>
       <c r="C23">
-        <v>21.03275843775881</v>
+        <v>20.82378570326596</v>
       </c>
       <c r="D23">
-        <v>7.900614971130021</v>
+        <v>8.021912105243388</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>85.23977131219172</v>
+        <v>85.02399629915502</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.9511763874843</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.28581611870217</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>26.22881220829252</v>
+        <v>44.11719836717587</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.03062477885965</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.83467245180354</v>
+        <v>26.66205508233414</v>
       </c>
       <c r="C24">
-        <v>18.99036182518837</v>
+        <v>18.79685381189922</v>
       </c>
       <c r="D24">
-        <v>7.262607480640766</v>
+        <v>7.393980193066992</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.47280992185424</v>
+        <v>77.37013093959322</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.984900426657013</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>39.47962643728699</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>23.7668015553239</v>
+        <v>39.34850544939235</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.58446529880634</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.78637954954775</v>
+        <v>23.63253245020272</v>
       </c>
       <c r="C25">
-        <v>16.80384666767187</v>
+        <v>16.62408756887415</v>
       </c>
       <c r="D25">
-        <v>6.665004052493112</v>
+        <v>6.804632727402121</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.41664392213283</v>
+        <v>69.38961552506969</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.01905895278775</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.52708476081381</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>21.0986608432319</v>
+        <v>34.42501437689297</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.93051554916795</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.32317170029237</v>
+        <v>21.36557037516013</v>
       </c>
       <c r="C2">
-        <v>14.986466501055</v>
+        <v>13.63702097239755</v>
       </c>
       <c r="D2">
-        <v>6.40939244340748</v>
+        <v>10.391843067058</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.43869899998546</v>
+        <v>63.89410302872383</v>
       </c>
       <c r="G2">
-        <v>2.043414780506378</v>
+        <v>2.089135095095846</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30.81132711374552</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.91182794046508</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.662245803926838</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.64202569506634</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.6907505304192</v>
+        <v>19.78206964106981</v>
       </c>
       <c r="C3">
-        <v>13.83680026143681</v>
+        <v>12.72970651488966</v>
       </c>
       <c r="D3">
-        <v>6.154360866135116</v>
+        <v>9.972536799122695</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.3182852415252</v>
+        <v>60.22953978475999</v>
       </c>
       <c r="G3">
-        <v>2.059788675180434</v>
+        <v>2.104164899184368</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>28.31456673847363</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.486396513606</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.588650691900462</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.15371452074599</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.65072090497814</v>
+        <v>18.81681226278807</v>
       </c>
       <c r="C4">
-        <v>13.10726054972061</v>
+        <v>12.15291063504848</v>
       </c>
       <c r="D4">
-        <v>6.001467842388107</v>
+        <v>9.71311154490833</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.7373296366008</v>
+        <v>57.92790677361699</v>
       </c>
       <c r="G4">
-        <v>2.069865839262498</v>
+        <v>2.113520192379332</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>26.74512534341707</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.57865623053126</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.546705164855511</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.85936052299946</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.21686148732858</v>
+        <v>18.45251610268877</v>
       </c>
       <c r="C5">
-        <v>12.80352885758403</v>
+        <v>11.91269512784893</v>
       </c>
       <c r="D5">
-        <v>5.939778193860076</v>
+        <v>9.60688406951196</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.67205233284708</v>
+        <v>56.97715372957421</v>
       </c>
       <c r="G5">
-        <v>2.073989198028877</v>
+        <v>2.117370442222227</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>26.09485679140475</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>16.20004037885848</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.530397734277956</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.74085281004903</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.14419852144162</v>
+        <v>18.39172400196658</v>
       </c>
       <c r="C6">
-        <v>12.75269251803295</v>
+        <v>11.87248995949496</v>
       </c>
       <c r="D6">
-        <v>5.929563712763026</v>
+        <v>9.589214248223717</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.49433483328146</v>
+        <v>56.81851658040652</v>
       </c>
       <c r="G6">
-        <v>2.074675182698885</v>
+        <v>2.118012224517272</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>25.98619307232117</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>16.1366317897373</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.527736524355017</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.72126430541661</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.64491104394863</v>
+        <v>18.81191954678906</v>
       </c>
       <c r="C7">
-        <v>13.10319098621707</v>
+        <v>12.14969217842179</v>
       </c>
       <c r="D7">
-        <v>6.00063375664697</v>
+        <v>9.711680992249313</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.7230182889321</v>
+        <v>57.91513612041776</v>
       </c>
       <c r="G7">
-        <v>2.069921366964149</v>
+        <v>2.113571957336143</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>26.73640080914456</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.57358597040541</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.546482093482074</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.85775633419746</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.76777797181993</v>
+        <v>20.82717666527435</v>
       </c>
       <c r="C8">
-        <v>14.59464564265978</v>
+        <v>13.32812827752397</v>
       </c>
       <c r="D8">
-        <v>6.320481663751811</v>
+        <v>10.24765999363612</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.0280204913709</v>
+        <v>62.64128273454854</v>
       </c>
       <c r="G8">
-        <v>2.049062766169517</v>
+        <v>2.094294834288412</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>29.9569785086682</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.42674562361508</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.636178814848459</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.4725538794209</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.66232812813398</v>
+        <v>24.58423790489887</v>
       </c>
       <c r="C9">
-        <v>17.35923694972296</v>
+        <v>15.49445399892342</v>
       </c>
       <c r="D9">
-        <v>6.995258154151442</v>
+        <v>11.28496880913756</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.08237494025279</v>
+        <v>71.50650233541143</v>
       </c>
       <c r="G9">
-        <v>2.007735022077012</v>
+        <v>2.057189964646124</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>36.07260609543951</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>21.83179549713233</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.839278110572297</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.80768795601781</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.4161944902461</v>
+        <v>27.19547276738434</v>
       </c>
       <c r="C10">
-        <v>19.34285351236213</v>
+        <v>17.01805546797565</v>
       </c>
       <c r="D10">
-        <v>7.555097810099169</v>
+        <v>12.04349249023505</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.39316584635901</v>
+        <v>77.80347655788975</v>
       </c>
       <c r="G10">
-        <v>1.97599091187682</v>
+        <v>2.029845778000193</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>40.61400742039162</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>24.24643968352105</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.007459318712302</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.23996264215907</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.66403783254278</v>
+        <v>28.35818675537565</v>
       </c>
       <c r="C11">
-        <v>20.25149914410734</v>
+        <v>17.70222464126775</v>
       </c>
       <c r="D11">
-        <v>7.836105490864596</v>
+        <v>12.38957661475026</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.8506891707852</v>
+        <v>80.63375823808425</v>
       </c>
       <c r="G11">
-        <v>1.960877475355945</v>
+        <v>2.017246744525128</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>42.75019619640414</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>25.34319780286635</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.088740497275316</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.87425527782373</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.13811951499462</v>
+        <v>28.79562787991741</v>
       </c>
       <c r="C12">
-        <v>20.59854626338085</v>
+        <v>17.96063150852221</v>
       </c>
       <c r="D12">
-        <v>7.947933713441651</v>
+        <v>12.5209898251651</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>84.16911856956591</v>
+        <v>81.70211842963853</v>
       </c>
       <c r="G12">
-        <v>1.955011262134096</v>
+        <v>2.012438146868142</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>43.57704382404929</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>25.76038865056186</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.120273792485324</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.11237203029894</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.0359029812111</v>
+        <v>28.70153004264392</v>
       </c>
       <c r="C13">
-        <v>20.52362981258056</v>
+        <v>17.90499777134745</v>
       </c>
       <c r="D13">
-        <v>7.923574477071988</v>
+        <v>12.49266766753312</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.88463330453257</v>
+        <v>81.47215042650954</v>
       </c>
       <c r="G13">
-        <v>1.956281961485975</v>
+        <v>2.013475701984543</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>43.39800700641783</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>25.67041307215432</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.113447779184076</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.06117437663483</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.70299366556364</v>
+        <v>28.39422751481765</v>
       </c>
       <c r="C14">
-        <v>20.27997678568953</v>
+        <v>17.7234934580081</v>
       </c>
       <c r="D14">
-        <v>7.845185114187833</v>
+        <v>12.40037944390911</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.95892768828764</v>
+        <v>80.7217108421971</v>
       </c>
       <c r="G14">
-        <v>1.960398057929325</v>
+        <v>2.016851986412095</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>42.81780487308986</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>25.37746773552566</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.091319215567476</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.89388429855278</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.4993607511102</v>
+        <v>28.20564974330946</v>
       </c>
       <c r="C15">
-        <v>20.13119308162972</v>
+        <v>17.61224948758009</v>
       </c>
       <c r="D15">
-        <v>7.79793557255354</v>
+        <v>12.34390424768745</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>82.39333163194293</v>
+        <v>80.26165401461155</v>
       </c>
       <c r="G15">
-        <v>1.962898965903922</v>
+        <v>2.018914675785448</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>42.46503913138728</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>25.19835076659307</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.077865245278916</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.79115725529666</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.33472070550029</v>
+        <v>27.11904213803356</v>
       </c>
       <c r="C16">
-        <v>19.28375660861652</v>
+        <v>16.97321312309742</v>
       </c>
       <c r="D16">
-        <v>7.537387147848829</v>
+        <v>12.02091244224486</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>79.16808279424177</v>
+        <v>77.61794182645566</v>
       </c>
       <c r="G16">
-        <v>1.9769614984816</v>
+        <v>2.030664750170059</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>40.47641109396219</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>24.17489351679727</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.002248924918493</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.19819586100415</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.62035894368336</v>
+        <v>26.44649521497885</v>
       </c>
       <c r="C17">
-        <v>18.76673061545041</v>
+        <v>16.57929488465697</v>
       </c>
       <c r="D17">
-        <v>7.385252692146074</v>
+        <v>11.8231625362719</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.25914717554056</v>
+        <v>75.98828560479807</v>
       </c>
       <c r="G17">
-        <v>1.985388191438474</v>
+        <v>2.037822528182356</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>39.27905285340142</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>23.54788228515224</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.957127409838125</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.830279364341</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.20884378912451</v>
+        <v>26.05724240526723</v>
       </c>
       <c r="C18">
-        <v>18.46978557481518</v>
+        <v>16.3518403415448</v>
       </c>
       <c r="D18">
-        <v>7.300100433921779</v>
+        <v>11.70950295166282</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.16540419987258</v>
+        <v>75.04761242539904</v>
       </c>
       <c r="G18">
-        <v>1.990175206752803</v>
+        <v>2.041925453209418</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>38.59637037471153</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>23.18692343940963</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.93161939801656</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.617011157207</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.06934696257241</v>
+        <v>25.92501151914452</v>
       </c>
       <c r="C19">
-        <v>18.36926883062266</v>
+        <v>16.27465986188737</v>
       </c>
       <c r="D19">
-        <v>7.271634027662831</v>
+        <v>11.67102819072285</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.79531225574073</v>
+        <v>74.72850404432808</v>
       </c>
       <c r="G19">
-        <v>1.991786884022943</v>
+        <v>2.043312621707845</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>38.36606942015742</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>23.06460175922849</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.923057365256081</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.544507234299</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.69645573226926</v>
+        <v>26.51833459826011</v>
       </c>
       <c r="C20">
-        <v>18.82171143001746</v>
+        <v>16.6213155397613</v>
       </c>
       <c r="D20">
-        <v>7.401194634490025</v>
+        <v>11.84420363604474</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.46171825645068</v>
+        <v>76.16210114670007</v>
       </c>
       <c r="G20">
-        <v>1.984497625669045</v>
+        <v>2.037062120323175</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>39.40584569593643</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>23.61464878667729</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.961884204232025</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.86961301562995</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.80071274202632</v>
+        <v>28.48456023771834</v>
       </c>
       <c r="C21">
-        <v>20.35144263861048</v>
+        <v>17.77681842869865</v>
       </c>
       <c r="D21">
-        <v>7.868046268428033</v>
+        <v>12.42747501267317</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>83.23051738635296</v>
+        <v>80.94221125036078</v>
       </c>
       <c r="G21">
-        <v>1.959193405797657</v>
+        <v>2.015861441859242</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>42.98765801603432</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>25.46344107012517</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.097797844226469</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.94307418165768</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.18679617081319</v>
+        <v>29.75345414377052</v>
       </c>
       <c r="C22">
-        <v>21.37013683367495</v>
+        <v>18.52846737407414</v>
       </c>
       <c r="D22">
-        <v>8.206125779769359</v>
+        <v>12.81091201742097</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>87.09456203349413</v>
+        <v>84.04748173091542</v>
       </c>
       <c r="G22">
-        <v>1.941784405799815</v>
+        <v>2.001777241119955</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>45.43969314945178</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>26.68433236754505</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.191061737467654</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.63278970917325</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.44502290480566</v>
+        <v>29.07740093815359</v>
       </c>
       <c r="C23">
-        <v>20.82378570326596</v>
+        <v>18.12738440323523</v>
       </c>
       <c r="D23">
-        <v>8.021912105243388</v>
+        <v>12.60597352650713</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>85.02399629915502</v>
+        <v>82.39123811448164</v>
       </c>
       <c r="G23">
-        <v>1.9511763874843</v>
+        <v>2.009320774794637</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>44.11719836717587</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>26.03062477885965</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.140852956646322</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.26560508492155</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.66205508233414</v>
+        <v>26.48586415637493</v>
       </c>
       <c r="C24">
-        <v>18.79685381189922</v>
+        <v>16.60232111614834</v>
       </c>
       <c r="D24">
-        <v>7.393980193066992</v>
+        <v>11.8346908781399</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.37013093959322</v>
+        <v>76.08353096705241</v>
       </c>
       <c r="G24">
-        <v>1.984900426657013</v>
+        <v>2.037405937581546</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>39.34850544939235</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>23.58446529880634</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.959732313835917</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.85183574644462</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.63253245020272</v>
+        <v>23.59607684850421</v>
       </c>
       <c r="C25">
-        <v>16.62408756887415</v>
+        <v>14.9220333755788</v>
       </c>
       <c r="D25">
-        <v>6.804632727402121</v>
+        <v>11.00544576077693</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.38961552506969</v>
+        <v>69.14937355030753</v>
       </c>
       <c r="G25">
-        <v>2.01905895278775</v>
+        <v>2.067200767886704</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>34.42501437689297</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20.93051554916795</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.781196701977132</v>
       </c>
       <c r="M25">
+        <v>13.37818253387818</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.36557037516013</v>
+        <v>12.40192139937966</v>
       </c>
       <c r="C2">
-        <v>13.63702097239755</v>
+        <v>6.638539649259638</v>
       </c>
       <c r="D2">
-        <v>10.391843067058</v>
+        <v>7.520318263474753</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.89410302872383</v>
+        <v>25.34723527409348</v>
       </c>
       <c r="G2">
-        <v>2.089135095095846</v>
+        <v>2.113711871725783</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.093112917190039</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.97701943844466</v>
       </c>
       <c r="L2">
-        <v>6.662245803926838</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.64202569506634</v>
+        <v>12.02843347844707</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.03653358244589</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.78206964106981</v>
+        <v>11.59579795074454</v>
       </c>
       <c r="C3">
-        <v>12.72970651488966</v>
+        <v>6.372661616107392</v>
       </c>
       <c r="D3">
-        <v>9.972536799122695</v>
+        <v>7.190891173641144</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60.22953978475999</v>
+        <v>25.10511708340288</v>
       </c>
       <c r="G3">
-        <v>2.104164899184368</v>
+        <v>2.11882682151311</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.047285386589228</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.36731541066249</v>
       </c>
       <c r="L3">
-        <v>6.588650691900462</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.15371452074599</v>
+        <v>11.49663314648853</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>18.0696725713664</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.81681226278807</v>
+        <v>11.07232807543934</v>
       </c>
       <c r="C4">
-        <v>12.15291063504848</v>
+        <v>6.203486570204269</v>
       </c>
       <c r="D4">
-        <v>9.71311154490833</v>
+        <v>6.984101680428722</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.92790677361699</v>
+        <v>24.97595191027931</v>
       </c>
       <c r="G4">
-        <v>2.113520192379332</v>
+        <v>2.122064426845293</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.022739353913389</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.974094886220675</v>
       </c>
       <c r="L4">
-        <v>6.546705164855511</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.85936052299946</v>
+        <v>11.16239693953736</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.10405681194072</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45251610268877</v>
+        <v>10.85181810663638</v>
       </c>
       <c r="C5">
-        <v>11.91269512784893</v>
+        <v>6.133114066268489</v>
       </c>
       <c r="D5">
-        <v>9.60688406951196</v>
+        <v>6.89881657568496</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.97715372957421</v>
+        <v>24.92811830306245</v>
       </c>
       <c r="G5">
-        <v>2.117370442222227</v>
+        <v>2.123408744564633</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.013624928092371</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.809166114707974</v>
       </c>
       <c r="L5">
-        <v>6.530397734277956</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.74085281004903</v>
+        <v>11.02444326208661</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.1214619141067</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.39172400196658</v>
+        <v>10.81476765592803</v>
       </c>
       <c r="C6">
-        <v>11.87248995949496</v>
+        <v>6.121344111216506</v>
       </c>
       <c r="D6">
-        <v>9.589214248223717</v>
+        <v>6.884597454607875</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.81851658040652</v>
+        <v>24.92046245958852</v>
       </c>
       <c r="G6">
-        <v>2.118012224517272</v>
+        <v>2.123633491796363</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.0121646738784</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.781498578209904</v>
       </c>
       <c r="L6">
-        <v>6.527736524355017</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.72126430541661</v>
+        <v>11.00143650099003</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>18.12455300346703</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81191954678906</v>
+        <v>11.06938334712708</v>
       </c>
       <c r="C7">
-        <v>12.14969217842179</v>
+        <v>6.202543218917867</v>
       </c>
       <c r="D7">
-        <v>9.711680992249313</v>
+        <v>6.98295544230416</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.91513612041776</v>
+        <v>24.97528750619187</v>
       </c>
       <c r="G7">
-        <v>2.113571957336143</v>
+        <v>2.122082454949845</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.022612857604894</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.971889497678196</v>
       </c>
       <c r="L7">
-        <v>6.546482093482074</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.85775633419746</v>
+        <v>11.16054326421733</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.10427798318585</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.82717666527435</v>
+        <v>12.12987074956045</v>
       </c>
       <c r="C8">
-        <v>13.32812827752397</v>
+        <v>6.548126469767867</v>
       </c>
       <c r="D8">
-        <v>10.24765999363612</v>
+        <v>7.407736964730696</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.64128273454854</v>
+        <v>25.25964961636469</v>
       </c>
       <c r="G8">
-        <v>2.094294834288412</v>
+        <v>2.115455727039886</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.076557299823802</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.7707353380269</v>
       </c>
       <c r="L8">
-        <v>6.636178814848459</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.4725538794209</v>
+        <v>11.84677392852225</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.04496407159262</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58423790489887</v>
+        <v>13.98463347536639</v>
       </c>
       <c r="C9">
-        <v>15.49445399892342</v>
+        <v>7.17670857125879</v>
       </c>
       <c r="D9">
-        <v>11.28496880913756</v>
+        <v>8.200398472092472</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.50650233541143</v>
+        <v>25.97590048943671</v>
       </c>
       <c r="G9">
-        <v>2.057189964646124</v>
+        <v>2.103203017449536</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.211469615953502</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.18603917856527</v>
       </c>
       <c r="L9">
-        <v>6.839278110572297</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.80768795601781</v>
+        <v>13.12431123515231</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>18.04619094205863</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.19547276738434</v>
+        <v>15.21243575838623</v>
       </c>
       <c r="C10">
-        <v>17.01805546797565</v>
+        <v>7.606350237486549</v>
       </c>
       <c r="D10">
-        <v>12.04349249023505</v>
+        <v>8.753248783108342</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.80347655788975</v>
+        <v>26.60345827961504</v>
       </c>
       <c r="G10">
-        <v>2.029845778000193</v>
+        <v>2.094613032504296</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.329144772764767</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.13248705420451</v>
       </c>
       <c r="L10">
-        <v>7.007459318712302</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.23996264215907</v>
+        <v>14.01371006535121</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.12725333569575</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.35818675537565</v>
+        <v>15.74225087583702</v>
       </c>
       <c r="C11">
-        <v>17.70222464126775</v>
+        <v>7.79448834296739</v>
       </c>
       <c r="D11">
-        <v>12.38957661475026</v>
+        <v>8.997579304913542</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.63375823808425</v>
+        <v>26.91174805792023</v>
       </c>
       <c r="G11">
-        <v>2.017246744525128</v>
+        <v>2.090785183363649</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.386862833879891</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.5427436585136</v>
       </c>
       <c r="L11">
-        <v>7.088740497275316</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.87425527782373</v>
+        <v>14.49820294200205</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.18336964291689</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.79562787991741</v>
+        <v>15.9387964853422</v>
       </c>
       <c r="C12">
-        <v>17.96063150852221</v>
+        <v>7.864660973628489</v>
       </c>
       <c r="D12">
-        <v>12.5209898251651</v>
+        <v>9.08902295058631</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.70211842963853</v>
+        <v>27.03182258326269</v>
       </c>
       <c r="G12">
-        <v>2.012438146868142</v>
+        <v>2.08934631297741</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.409332958095746</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.69518745512528</v>
       </c>
       <c r="L12">
-        <v>7.120273792485324</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>16.11237203029894</v>
+        <v>14.68011694599445</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.20753649640632</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.70153004264392</v>
+        <v>15.89664774021855</v>
       </c>
       <c r="C13">
-        <v>17.90499777134745</v>
+        <v>7.849595946701397</v>
       </c>
       <c r="D13">
-        <v>12.49266766753312</v>
+        <v>9.069377577191617</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.47215042650954</v>
+        <v>27.00581343164157</v>
       </c>
       <c r="G13">
-        <v>2.013475701984543</v>
+        <v>2.089655739290967</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.404466147126508</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.66248527447763</v>
       </c>
       <c r="L13">
-        <v>7.113447779184076</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>16.06117437663483</v>
+        <v>14.64109995194818</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>18.20219962080592</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.39422751481765</v>
+        <v>15.7585023748545</v>
       </c>
       <c r="C14">
-        <v>17.7234934580081</v>
+        <v>7.800283051909321</v>
       </c>
       <c r="D14">
-        <v>12.40037944390911</v>
+        <v>9.005124294883444</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.7217108421971</v>
+        <v>26.92155960818512</v>
       </c>
       <c r="G14">
-        <v>2.016851986412095</v>
+        <v>2.090666598014206</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.38869910334817</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.55534359242843</v>
       </c>
       <c r="L14">
-        <v>7.091319215567476</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.89388429855278</v>
+        <v>14.51324193615227</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>18.18529854897312</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.20564974330946</v>
+        <v>15.67335392136592</v>
       </c>
       <c r="C15">
-        <v>17.61224948758009</v>
+        <v>7.769937473984913</v>
       </c>
       <c r="D15">
-        <v>12.34390424768745</v>
+        <v>8.965625520846796</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.26165401461155</v>
+        <v>26.87038706046829</v>
       </c>
       <c r="G15">
-        <v>2.018914675785448</v>
+        <v>2.091287140274313</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.379121571472785</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.48933735624607</v>
       </c>
       <c r="L15">
-        <v>7.077865245278916</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.79115725529666</v>
+        <v>14.43445166239848</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>18.17533045774645</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.11904213803356</v>
+        <v>15.17723704930914</v>
       </c>
       <c r="C16">
-        <v>16.97321312309742</v>
+        <v>7.593906047553143</v>
       </c>
       <c r="D16">
-        <v>12.02091244224486</v>
+        <v>8.737132623370625</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.61794182645566</v>
+        <v>26.58377437811549</v>
       </c>
       <c r="G16">
-        <v>2.030664750170059</v>
+        <v>2.094864727998768</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.325458001440229</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.1052679148739</v>
       </c>
       <c r="L16">
-        <v>7.002248924918493</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>15.19819586100415</v>
+        <v>13.98779783043556</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>18.12398600844271</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.44649521497885</v>
+        <v>14.86556153062608</v>
       </c>
       <c r="C17">
-        <v>16.57929488465697</v>
+        <v>7.484028430817911</v>
       </c>
       <c r="D17">
-        <v>11.8231625362719</v>
+        <v>8.595086475446971</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.98828560479807</v>
+        <v>26.41382781644357</v>
       </c>
       <c r="G17">
-        <v>2.037822528182356</v>
+        <v>2.09707932929523</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.293617791123336</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.8644594334806</v>
       </c>
       <c r="L17">
-        <v>6.957127409838125</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.830279364341</v>
+        <v>13.75937477511864</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>18.09752270286181</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.05724240526723</v>
+        <v>14.68358797082182</v>
       </c>
       <c r="C18">
-        <v>16.3518403415448</v>
+        <v>7.420142697180933</v>
       </c>
       <c r="D18">
-        <v>11.70950295166282</v>
+        <v>8.512713173221332</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.04761242539904</v>
+        <v>26.31822343684885</v>
       </c>
       <c r="G18">
-        <v>2.041925453209418</v>
+        <v>2.098360670590866</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.275697591550687</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.72404237482859</v>
       </c>
       <c r="L18">
-        <v>6.93161939801656</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.617011157207</v>
+        <v>13.6268806642442</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>18.0841037678158</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.92501151914452</v>
+        <v>14.62150874185817</v>
       </c>
       <c r="C19">
-        <v>16.27465986188737</v>
+        <v>7.398394799159769</v>
       </c>
       <c r="D19">
-        <v>11.67102819072285</v>
+        <v>8.484709223454576</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.72850404432808</v>
+        <v>26.28622006503437</v>
       </c>
       <c r="G19">
-        <v>2.043312621707845</v>
+        <v>2.098795833467343</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.269697340833811</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.67617140596237</v>
       </c>
       <c r="L19">
-        <v>6.923057365256081</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.544507234299</v>
+        <v>13.58183212638994</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>18.07986527443127</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.51833459826011</v>
+        <v>14.89901966546448</v>
       </c>
       <c r="C20">
-        <v>16.6213155397613</v>
+        <v>7.495796361277461</v>
       </c>
       <c r="D20">
-        <v>11.84420363604474</v>
+        <v>8.610277480753274</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.16210114670007</v>
+        <v>26.43169658943669</v>
       </c>
       <c r="G20">
-        <v>2.037062120323175</v>
+        <v>2.096842804412383</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.296966431726862</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.89029160681502</v>
       </c>
       <c r="L20">
-        <v>6.961884204232025</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.86961301562995</v>
+        <v>13.78380639668882</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>18.10015217262621</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.48456023771834</v>
+        <v>15.79918947193351</v>
       </c>
       <c r="C21">
-        <v>17.77681842869865</v>
+        <v>7.814796649956311</v>
       </c>
       <c r="D21">
-        <v>12.42747501267317</v>
+        <v>9.024026660946392</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.94221125036078</v>
+        <v>26.94621618638202</v>
       </c>
       <c r="G21">
-        <v>2.015861441859242</v>
+        <v>2.090369401982079</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.393313524691954</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.58689263561102</v>
       </c>
       <c r="L21">
-        <v>7.097797844226469</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.94307418165768</v>
+        <v>14.55089553497235</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>18.1901824478957</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.75345414377052</v>
+        <v>16.3637220122568</v>
       </c>
       <c r="C22">
-        <v>18.52846737407414</v>
+        <v>8.017032564678409</v>
       </c>
       <c r="D22">
-        <v>12.81091201742097</v>
+        <v>9.288131175731417</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.04748173091542</v>
+        <v>27.301925920682</v>
       </c>
       <c r="G22">
-        <v>2.001777241119955</v>
+        <v>2.086200333014382</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.459863348998305</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.02519907806924</v>
       </c>
       <c r="L22">
-        <v>7.191061737467654</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.63278970917325</v>
+        <v>15.07365240119024</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>18.26609320476284</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.07740093815359</v>
+        <v>16.06458033496855</v>
       </c>
       <c r="C23">
-        <v>18.12738440323523</v>
+        <v>7.909672520496724</v>
       </c>
       <c r="D23">
-        <v>12.60597352650713</v>
+        <v>9.147763845722309</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.39123811448164</v>
+        <v>27.11028222807223</v>
       </c>
       <c r="G23">
-        <v>2.009320774794637</v>
+        <v>2.088420085495091</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.424013017335702</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.7928149809989</v>
       </c>
       <c r="L23">
-        <v>7.140852956646322</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>16.26560508492155</v>
+        <v>14.79657416975388</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>18.22396677247682</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.48586415637493</v>
+        <v>14.88390192748921</v>
       </c>
       <c r="C24">
-        <v>16.60232111614834</v>
+        <v>7.490478307335005</v>
       </c>
       <c r="D24">
-        <v>11.8346908781399</v>
+        <v>8.60341183205068</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.08353096705241</v>
+        <v>26.42361157959279</v>
       </c>
       <c r="G24">
-        <v>2.037405937581546</v>
+        <v>2.096949711904174</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.295451312485687</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.87861902723318</v>
       </c>
       <c r="L24">
-        <v>6.959732313835917</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.85183574644462</v>
+        <v>13.7727645011024</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>18.09895780915741</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.59607684850421</v>
+        <v>13.50673230363355</v>
       </c>
       <c r="C25">
-        <v>14.9220333755788</v>
+        <v>7.01217715465238</v>
       </c>
       <c r="D25">
-        <v>11.00544576077693</v>
+        <v>7.990843690795114</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.14937355030753</v>
+        <v>25.76463655127604</v>
       </c>
       <c r="G25">
-        <v>2.067200767886704</v>
+        <v>2.106442270271533</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.171768113507675</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.81951765998611</v>
       </c>
       <c r="L25">
-        <v>6.781196701977132</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.37818253387818</v>
+        <v>12.7868782397824</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18.03240006021069</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.40192139937966</v>
+        <v>9.873373792187643</v>
       </c>
       <c r="C2">
-        <v>6.638539649259638</v>
+        <v>4.535836034042181</v>
       </c>
       <c r="D2">
-        <v>7.520318263474753</v>
+        <v>9.872111394706771</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.34723527409348</v>
+        <v>36.12361155250988</v>
       </c>
       <c r="G2">
-        <v>2.113711871725783</v>
+        <v>3.67433603405399</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.093112917190039</v>
+        <v>11.46120904569205</v>
       </c>
       <c r="K2">
-        <v>10.97701943844466</v>
+        <v>9.236550822851603</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.02843347844707</v>
+        <v>15.97307109453593</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.03653358244589</v>
+        <v>26.9955597954439</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.59579795074454</v>
+        <v>9.630720560333298</v>
       </c>
       <c r="C3">
-        <v>6.372661616107392</v>
+        <v>4.402658554763506</v>
       </c>
       <c r="D3">
-        <v>7.190891173641144</v>
+        <v>9.82910144766784</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.10511708340288</v>
+        <v>36.18940175905835</v>
       </c>
       <c r="G3">
-        <v>2.11882682151311</v>
+        <v>3.6762383267413</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.047285386589228</v>
+        <v>11.47997465097203</v>
       </c>
       <c r="K3">
-        <v>10.36731541066249</v>
+        <v>9.076774920515803</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.49663314648853</v>
+        <v>15.90293171799192</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.0696725713664</v>
+        <v>27.07714197310857</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.07232807543934</v>
+        <v>9.480387537821546</v>
       </c>
       <c r="C4">
-        <v>6.203486570204269</v>
+        <v>4.318145172239533</v>
       </c>
       <c r="D4">
-        <v>6.984101680428722</v>
+        <v>9.804321696640667</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.97595191027931</v>
+        <v>36.237692912373</v>
       </c>
       <c r="G4">
-        <v>2.122064426845293</v>
+        <v>3.677468406910593</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.022739353913389</v>
+        <v>11.49313265410786</v>
       </c>
       <c r="K4">
-        <v>9.974094886220675</v>
+        <v>8.978686574455431</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.16239693953736</v>
+        <v>15.86237874199631</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.10405681194072</v>
+        <v>27.13245152654292</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.85181810663638</v>
+        <v>9.41888126546386</v>
       </c>
       <c r="C5">
-        <v>6.133114066268489</v>
+        <v>4.283049388703776</v>
       </c>
       <c r="D5">
-        <v>6.89881657568496</v>
+        <v>9.794640898560795</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.92811830306245</v>
+        <v>36.25935398026564</v>
       </c>
       <c r="G5">
-        <v>2.123408744564633</v>
+        <v>3.6779853302371</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.013624928092371</v>
+        <v>11.49890605415958</v>
       </c>
       <c r="K5">
-        <v>9.809166114707974</v>
+        <v>8.938769453142564</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.02444326208661</v>
+        <v>15.84649736969222</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.1214619141067</v>
+        <v>27.15630056274017</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.81476765592803</v>
+        <v>9.408656244067942</v>
       </c>
       <c r="C6">
-        <v>6.121344111216506</v>
+        <v>4.277183184583472</v>
       </c>
       <c r="D6">
-        <v>6.884597454607875</v>
+        <v>9.793058817946671</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.92046245958852</v>
+        <v>36.26307038439414</v>
       </c>
       <c r="G6">
-        <v>2.123633491796363</v>
+        <v>3.678072111967171</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.0121646738784</v>
+        <v>11.49988957173186</v>
       </c>
       <c r="K6">
-        <v>9.781498578209904</v>
+        <v>8.932146050503373</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.00143650099003</v>
+        <v>15.84389954146002</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.12455300346703</v>
+        <v>27.16033973128692</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.06938334712708</v>
+        <v>9.479558905774862</v>
       </c>
       <c r="C7">
-        <v>6.202543218917867</v>
+        <v>4.317674467416856</v>
       </c>
       <c r="D7">
-        <v>6.98295544230416</v>
+        <v>9.804189439247409</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.97528750619187</v>
+        <v>36.2379770208463</v>
       </c>
       <c r="G7">
-        <v>2.122082454949845</v>
+        <v>3.677475314865549</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.022612857604894</v>
+        <v>11.49320885038135</v>
       </c>
       <c r="K7">
-        <v>9.971889497678196</v>
+        <v>8.978147948974341</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.16054326421733</v>
+        <v>15.86216193570179</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.10427798318585</v>
+        <v>27.13276786193737</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.12987074956045</v>
+        <v>9.79004041192383</v>
       </c>
       <c r="C8">
-        <v>6.548126469767867</v>
+        <v>4.490504753953067</v>
       </c>
       <c r="D8">
-        <v>7.407736964730696</v>
+        <v>9.856948296620596</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.25964961636469</v>
+        <v>36.14465535948047</v>
       </c>
       <c r="G8">
-        <v>2.115455727039886</v>
+        <v>3.674979092563009</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.076557299823802</v>
+        <v>11.46733995433732</v>
       </c>
       <c r="K8">
-        <v>10.7707353380269</v>
+        <v>9.181487391112324</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.84677392852225</v>
+        <v>15.94837315603722</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.04496407159262</v>
+        <v>27.02260514175205</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.98463347536639</v>
+        <v>10.38435737255254</v>
       </c>
       <c r="C9">
-        <v>7.17670857125879</v>
+        <v>4.806341561348219</v>
       </c>
       <c r="D9">
-        <v>8.200398472092472</v>
+        <v>9.972972547315093</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.97590048943671</v>
+        <v>36.02443426906659</v>
       </c>
       <c r="G9">
-        <v>2.103203017449536</v>
+        <v>3.670574227980445</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.211469615953502</v>
+        <v>11.42958731620401</v>
       </c>
       <c r="K9">
-        <v>12.18603917856527</v>
+        <v>9.578157262088444</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.12431123515231</v>
+        <v>16.1367940782654</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.04619094205863</v>
+        <v>26.84806853190904</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.21243575838623</v>
+        <v>10.80728998409366</v>
       </c>
       <c r="C10">
-        <v>7.606350237486549</v>
+        <v>5.022736700796913</v>
       </c>
       <c r="D10">
-        <v>8.753248783108342</v>
+        <v>10.06536705441441</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.60345827961504</v>
+        <v>35.97453603175511</v>
       </c>
       <c r="G10">
-        <v>2.094613032504296</v>
+        <v>3.667633692846355</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.329144772764767</v>
+        <v>11.40975499924327</v>
       </c>
       <c r="K10">
-        <v>13.13248705420451</v>
+        <v>9.865472897447068</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.01371006535121</v>
+        <v>16.28621200761846</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.12725333569575</v>
+        <v>26.74525233709999</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.74225087583702</v>
+        <v>10.99579629627072</v>
       </c>
       <c r="C11">
-        <v>7.79448834296739</v>
+        <v>5.117501878347336</v>
       </c>
       <c r="D11">
-        <v>8.997579304913542</v>
+        <v>10.10883580626156</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.91174805792023</v>
+        <v>35.96020183889172</v>
       </c>
       <c r="G11">
-        <v>2.090785183363649</v>
+        <v>3.666359513610046</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.386862833879891</v>
+        <v>11.40244695962977</v>
       </c>
       <c r="K11">
-        <v>13.5427436585136</v>
+        <v>9.994714882707525</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.49820294200205</v>
+        <v>16.35638428073993</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.18336964291689</v>
+        <v>26.70402151779414</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.9387964853422</v>
+        <v>11.06655064475224</v>
       </c>
       <c r="C12">
-        <v>7.864660973628489</v>
+        <v>5.152838513959709</v>
       </c>
       <c r="D12">
-        <v>9.08902295058631</v>
+        <v>10.12549265919067</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.03182258326269</v>
+        <v>35.95597735932286</v>
       </c>
       <c r="G12">
-        <v>2.08934631297741</v>
+        <v>3.665886093716519</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.409332958095746</v>
+        <v>11.39992574907076</v>
       </c>
       <c r="K12">
-        <v>13.69518745512528</v>
+        <v>10.04340065069156</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.68011694599445</v>
+        <v>16.38325659774022</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.20753649640632</v>
+        <v>26.6892070703177</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.89664774021855</v>
+        <v>11.05134145217559</v>
       </c>
       <c r="C13">
-        <v>7.849595946701397</v>
+        <v>5.145252851960167</v>
       </c>
       <c r="D13">
-        <v>9.069377577191617</v>
+        <v>10.12189675485669</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.00581343164157</v>
+        <v>35.95683364286668</v>
       </c>
       <c r="G13">
-        <v>2.089655739290967</v>
+        <v>3.66598764985401</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.404466147126508</v>
+        <v>11.40045779235468</v>
       </c>
       <c r="K13">
-        <v>13.66248527447763</v>
+        <v>10.03292735757153</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.64109995194818</v>
+        <v>16.37745611331802</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.20219962080592</v>
+        <v>26.69236207044458</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.7585023748545</v>
+        <v>11.00163028309934</v>
       </c>
       <c r="C14">
-        <v>7.800283051909321</v>
+        <v>5.120420154649394</v>
       </c>
       <c r="D14">
-        <v>9.005124294883444</v>
+        <v>10.11020230567946</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.92155960818512</v>
+        <v>35.95983016525068</v>
       </c>
       <c r="G14">
-        <v>2.090666598014206</v>
+        <v>3.666320383266941</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.38869910334817</v>
+        <v>11.40223460585149</v>
       </c>
       <c r="K14">
-        <v>13.55534359242843</v>
+        <v>9.998725660735694</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.51324193615227</v>
+        <v>16.35858917668302</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.18529854897312</v>
+        <v>26.70278670467616</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.67335392136592</v>
+        <v>10.9710968792676</v>
       </c>
       <c r="C15">
-        <v>7.769937473984913</v>
+        <v>5.105137359016056</v>
       </c>
       <c r="D15">
-        <v>8.965625520846796</v>
+        <v>10.10306434626258</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.87038706046829</v>
+        <v>35.96182237238352</v>
       </c>
       <c r="G15">
-        <v>2.091287140274313</v>
+        <v>3.666525373784432</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.379121571472785</v>
+        <v>11.40335500753732</v>
       </c>
       <c r="K15">
-        <v>13.48933735624607</v>
+        <v>9.97774156526102</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.43445166239848</v>
+        <v>16.34707113924437</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.17533045774645</v>
+        <v>26.70927617506976</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17723704930914</v>
+        <v>10.79488632092298</v>
       </c>
       <c r="C16">
-        <v>7.593906047553143</v>
+        <v>5.016467832394519</v>
       </c>
       <c r="D16">
-        <v>8.737132623370625</v>
+        <v>10.06255430654955</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.58377437811549</v>
+        <v>35.97564120205563</v>
       </c>
       <c r="G16">
-        <v>2.094864727998768</v>
+        <v>3.667718237086341</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.325458001440229</v>
+        <v>11.41026706201674</v>
       </c>
       <c r="K16">
-        <v>13.1052679148739</v>
+        <v>9.856993322193919</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.98779783043556</v>
+        <v>16.28166894267414</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.12398600844271</v>
+        <v>26.74805853748086</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.86556153062608</v>
+        <v>10.68573959285112</v>
       </c>
       <c r="C17">
-        <v>7.484028430817911</v>
+        <v>4.961115573426945</v>
       </c>
       <c r="D17">
-        <v>8.595086475446971</v>
+        <v>10.03806357760893</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.41382781644357</v>
+        <v>35.9862617425352</v>
       </c>
       <c r="G17">
-        <v>2.09707932929523</v>
+        <v>3.668466248020087</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.293617791123336</v>
+        <v>11.4149461607511</v>
       </c>
       <c r="K17">
-        <v>12.8644594334806</v>
+        <v>9.782511324372624</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.75937477511864</v>
+        <v>16.24209871623604</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.09752270286181</v>
+        <v>26.77327085693717</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68358797082182</v>
+        <v>10.62259915271745</v>
       </c>
       <c r="C18">
-        <v>7.420142697180933</v>
+        <v>4.928933675116862</v>
       </c>
       <c r="D18">
-        <v>8.512713173221332</v>
+        <v>10.02411316811194</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.31822343684885</v>
+        <v>35.99315772463944</v>
       </c>
       <c r="G18">
-        <v>2.098360670590866</v>
+        <v>3.66890246229158</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.275697591550687</v>
+        <v>11.41779878244538</v>
       </c>
       <c r="K18">
-        <v>12.72404237482859</v>
+        <v>9.739536474613301</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.6268806642442</v>
+        <v>16.21954721205775</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.0841037678158</v>
+        <v>26.78829372805895</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.62150874185817</v>
+        <v>10.60116090923932</v>
       </c>
       <c r="C19">
-        <v>7.398394799159769</v>
+        <v>4.917978891594967</v>
       </c>
       <c r="D19">
-        <v>8.484709223454576</v>
+        <v>10.01941347698017</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.28622006503437</v>
+        <v>35.99562777751559</v>
       </c>
       <c r="G19">
-        <v>2.098795833467343</v>
+        <v>3.669051185079473</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.269697340833811</v>
+        <v>11.41879234618727</v>
       </c>
       <c r="K19">
-        <v>12.67617140596237</v>
+        <v>9.724964204649224</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.58183212638994</v>
+        <v>16.21194793480189</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.07986527443127</v>
+        <v>26.79346970387454</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.89901966546448</v>
+        <v>10.69739645118614</v>
       </c>
       <c r="C20">
-        <v>7.495796361277461</v>
+        <v>4.967043751674828</v>
       </c>
       <c r="D20">
-        <v>8.610277480753274</v>
+        <v>10.04065665682692</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.43169658943669</v>
+        <v>35.98504967505006</v>
       </c>
       <c r="G20">
-        <v>2.096842804412383</v>
+        <v>3.668386002588607</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.296966431726862</v>
+        <v>11.41443136753878</v>
       </c>
       <c r="K20">
-        <v>12.89029160681502</v>
+        <v>9.790454345684051</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.78380639668882</v>
+        <v>16.24628960323802</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.10015217262621</v>
+        <v>26.77053298335253</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.79918947193351</v>
+        <v>11.01624925514768</v>
       </c>
       <c r="C21">
-        <v>7.814796649956311</v>
+        <v>5.127729168781557</v>
       </c>
       <c r="D21">
-        <v>9.024026660946392</v>
+        <v>10.11363201066055</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.94621618638202</v>
+        <v>35.95891734690488</v>
       </c>
       <c r="G21">
-        <v>2.090369401982079</v>
+        <v>3.666222405213186</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.393313524691954</v>
+        <v>11.40170603355769</v>
       </c>
       <c r="K21">
-        <v>13.58689263561102</v>
+        <v>10.0087788102554</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.55089553497235</v>
+        <v>16.36412285956177</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.1901824478957</v>
+        <v>26.69970304311629</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.3637220122568</v>
+        <v>11.22094385870175</v>
       </c>
       <c r="C22">
-        <v>8.017032564678409</v>
+        <v>5.229539121740863</v>
       </c>
       <c r="D22">
-        <v>9.288131175731417</v>
+        <v>10.16246398292122</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.301925920682</v>
+        <v>35.94885355578333</v>
       </c>
       <c r="G22">
-        <v>2.086200333014382</v>
+        <v>3.664861297927012</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.459863348998305</v>
+        <v>11.39482409168206</v>
       </c>
       <c r="K22">
-        <v>14.02519907806924</v>
+        <v>10.14995850422524</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.07365240119024</v>
+        <v>16.44287183466853</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.26609320476284</v>
+        <v>26.65806826591177</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.06458033496855</v>
+        <v>11.11205412344884</v>
       </c>
       <c r="C23">
-        <v>7.909672520496724</v>
+        <v>5.175500907383634</v>
       </c>
       <c r="D23">
-        <v>9.147763845722309</v>
+        <v>10.13630086147842</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.11028222807223</v>
+        <v>35.95358282691669</v>
       </c>
       <c r="G23">
-        <v>2.088420085495091</v>
+        <v>3.665582918275623</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.424013017335702</v>
+        <v>11.39836592779653</v>
       </c>
       <c r="K23">
-        <v>13.7928149809989</v>
+        <v>10.0747606699781</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.79657416975388</v>
+        <v>16.40068869844967</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.22396677247682</v>
+        <v>26.67986281037686</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.88390192748921</v>
+        <v>10.69212759658564</v>
       </c>
       <c r="C24">
-        <v>7.490478307335005</v>
+        <v>4.964364739391631</v>
       </c>
       <c r="D24">
-        <v>8.60341183205068</v>
+        <v>10.03948392111506</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.42361157959279</v>
+        <v>35.9855951897106</v>
       </c>
       <c r="G24">
-        <v>2.096949711904174</v>
+        <v>3.668422262317058</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.295451312485687</v>
+        <v>11.41466359921639</v>
       </c>
       <c r="K24">
-        <v>12.87861902723318</v>
+        <v>9.786863782424865</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.7727645011024</v>
+        <v>16.24439428536192</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.09895780915741</v>
+        <v>26.77176913152005</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.50673230363355</v>
+        <v>10.22565633456206</v>
       </c>
       <c r="C25">
-        <v>7.01217715465238</v>
+        <v>4.723544023047913</v>
       </c>
       <c r="D25">
-        <v>7.990843690795114</v>
+        <v>9.940290548344736</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.76463655127604</v>
+        <v>36.0502177608055</v>
       </c>
       <c r="G25">
-        <v>2.106442270271533</v>
+        <v>3.671713704284216</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.171768113507675</v>
+        <v>11.43841164621968</v>
       </c>
       <c r="K25">
-        <v>11.81951765998611</v>
+        <v>9.471370387055767</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.7868782397824</v>
+        <v>16.08383033679718</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.03240006021069</v>
+        <v>26.89083039504157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.873373792187643</v>
+        <v>12.40192139937965</v>
       </c>
       <c r="C2">
-        <v>4.535836034042181</v>
+        <v>6.638539649259521</v>
       </c>
       <c r="D2">
-        <v>9.872111394706771</v>
+        <v>7.520318263474689</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.12361155250988</v>
+        <v>25.34723527409341</v>
       </c>
       <c r="G2">
-        <v>3.67433603405399</v>
+        <v>2.113711871725651</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.46120904569205</v>
+        <v>7.093112917190068</v>
       </c>
       <c r="K2">
-        <v>9.236550822851603</v>
+        <v>10.97701943844459</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.97307109453593</v>
+        <v>12.02843347844709</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.9955597954439</v>
+        <v>18.03653358244588</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.630720560333298</v>
+        <v>11.59579795074456</v>
       </c>
       <c r="C3">
-        <v>4.402658554763506</v>
+        <v>6.372661616107392</v>
       </c>
       <c r="D3">
-        <v>9.82910144766784</v>
+        <v>7.190891173641194</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.18940175905835</v>
+        <v>25.10511708340293</v>
       </c>
       <c r="G3">
-        <v>3.6762383267413</v>
+        <v>2.118826821513111</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.47997465097203</v>
+        <v>7.047285386589228</v>
       </c>
       <c r="K3">
-        <v>9.076774920515803</v>
+        <v>10.36731541066248</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.90293171799192</v>
+        <v>11.49663314648854</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.07714197310857</v>
+        <v>18.06967257136641</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.480387537821546</v>
+        <v>11.07232807543934</v>
       </c>
       <c r="C4">
-        <v>4.318145172239533</v>
+        <v>6.203486570204353</v>
       </c>
       <c r="D4">
-        <v>9.804321696640667</v>
+        <v>6.984101680428722</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.237692912373</v>
+        <v>24.97595191027907</v>
       </c>
       <c r="G4">
-        <v>3.677468406910593</v>
+        <v>2.122064426844891</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.49313265410786</v>
+        <v>7.022739353913378</v>
       </c>
       <c r="K4">
-        <v>8.978686574455431</v>
+        <v>9.974094886220698</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.86237874199631</v>
+        <v>11.16239693953733</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.13245152654292</v>
+        <v>18.1040568119405</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.41888126546386</v>
+        <v>10.85181810663646</v>
       </c>
       <c r="C5">
-        <v>4.283049388703776</v>
+        <v>6.133114066268587</v>
       </c>
       <c r="D5">
-        <v>9.794640898560795</v>
+        <v>6.898816575685133</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.25935398026564</v>
+        <v>24.92811830306234</v>
       </c>
       <c r="G5">
-        <v>3.6779853302371</v>
+        <v>2.12340874456463</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.49890605415958</v>
+        <v>7.013624928092378</v>
       </c>
       <c r="K5">
-        <v>8.938769453142564</v>
+        <v>9.809166114708063</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.84649736969222</v>
+        <v>11.02444326208662</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.15630056274017</v>
+        <v>18.12146191410648</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.408656244067942</v>
+        <v>10.81476765592801</v>
       </c>
       <c r="C6">
-        <v>4.277183184583472</v>
+        <v>6.121344111216409</v>
       </c>
       <c r="D6">
-        <v>9.793058817946671</v>
+        <v>6.884597454607889</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.26307038439414</v>
+        <v>24.92046245958854</v>
       </c>
       <c r="G6">
-        <v>3.678072111967171</v>
+        <v>2.123633491796497</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.49988957173186</v>
+        <v>7.012164673878319</v>
       </c>
       <c r="K6">
-        <v>8.932146050503373</v>
+        <v>9.781498578209884</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.84389954146002</v>
+        <v>11.00143650099005</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.16033973128692</v>
+        <v>18.12455300346698</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.479558905774862</v>
+        <v>11.06938334712708</v>
       </c>
       <c r="C7">
-        <v>4.317674467416856</v>
+        <v>6.202543218917975</v>
       </c>
       <c r="D7">
-        <v>9.804189439247409</v>
+        <v>6.98295544230429</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.2379770208463</v>
+        <v>24.97528750619178</v>
       </c>
       <c r="G7">
-        <v>3.677475314865549</v>
+        <v>2.122082454949977</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.49320885038135</v>
+        <v>7.022612857604845</v>
       </c>
       <c r="K7">
-        <v>8.978147948974341</v>
+        <v>9.971889497678216</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.86216193570179</v>
+        <v>11.16054326421733</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.13276786193737</v>
+        <v>18.10427798318568</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.79004041192383</v>
+        <v>12.12987074956041</v>
       </c>
       <c r="C8">
-        <v>4.490504753953067</v>
+        <v>6.5481264697678</v>
       </c>
       <c r="D8">
-        <v>9.856948296620596</v>
+        <v>7.407736964730696</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.14465535948047</v>
+        <v>25.25964961636469</v>
       </c>
       <c r="G8">
-        <v>3.674979092563009</v>
+        <v>2.115455727039884</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.46733995433732</v>
+        <v>7.076557299823769</v>
       </c>
       <c r="K8">
-        <v>9.181487391112324</v>
+        <v>10.77073533802685</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.94837315603722</v>
+        <v>11.84677392852227</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.02260514175205</v>
+        <v>18.04496407159264</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.38435737255254</v>
+        <v>13.98463347536635</v>
       </c>
       <c r="C9">
-        <v>4.806341561348219</v>
+        <v>7.176708571258692</v>
       </c>
       <c r="D9">
-        <v>9.972972547315093</v>
+        <v>8.200398472092388</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.02443426906659</v>
+        <v>25.97590048943665</v>
       </c>
       <c r="G9">
-        <v>3.670574227980445</v>
+        <v>2.103203017449403</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.42958731620401</v>
+        <v>7.211469615953514</v>
       </c>
       <c r="K9">
-        <v>9.578157262088444</v>
+        <v>12.18603917856523</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.1367940782654</v>
+        <v>13.12431123515232</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.84806853190904</v>
+        <v>18.04619094205869</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.80728998409366</v>
+        <v>15.21243575838621</v>
       </c>
       <c r="C10">
-        <v>5.022736700796913</v>
+        <v>7.606350237486523</v>
       </c>
       <c r="D10">
-        <v>10.06536705441441</v>
+        <v>8.753248783108326</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.97453603175511</v>
+        <v>26.60345827961498</v>
       </c>
       <c r="G10">
-        <v>3.667633692846355</v>
+        <v>2.094613032504296</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.40975499924327</v>
+        <v>7.329144772764809</v>
       </c>
       <c r="K10">
-        <v>9.865472897447068</v>
+        <v>13.13248705420452</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.28621200761846</v>
+        <v>14.01371006535119</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.74525233709999</v>
+        <v>18.12725333569573</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.99579629627072</v>
+        <v>15.74225087583702</v>
       </c>
       <c r="C11">
-        <v>5.117501878347336</v>
+        <v>7.794488342967759</v>
       </c>
       <c r="D11">
-        <v>10.10883580626156</v>
+        <v>8.997579304913522</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.96020183889172</v>
+        <v>26.91174805792009</v>
       </c>
       <c r="G11">
-        <v>3.666359513610046</v>
+        <v>2.090785183363915</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.40244695962977</v>
+        <v>7.386862833879909</v>
       </c>
       <c r="K11">
-        <v>9.994714882707525</v>
+        <v>13.54274365851365</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.35638428073993</v>
+        <v>14.49820294200209</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.70402151779414</v>
+        <v>18.18336964291673</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.06655064475224</v>
+        <v>15.93879648534214</v>
       </c>
       <c r="C12">
-        <v>5.152838513959709</v>
+        <v>7.864660973628393</v>
       </c>
       <c r="D12">
-        <v>10.12549265919067</v>
+        <v>9.089022950586291</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.95597735932286</v>
+        <v>27.03182258326285</v>
       </c>
       <c r="G12">
-        <v>3.665886093716519</v>
+        <v>2.089346312977677</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.39992574907076</v>
+        <v>7.409332958095746</v>
       </c>
       <c r="K12">
-        <v>10.04340065069156</v>
+        <v>13.69518745512525</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.38325659774022</v>
+        <v>14.68011694599439</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.6892070703177</v>
+        <v>18.20753649640645</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.05134145217559</v>
+        <v>15.89664774021858</v>
       </c>
       <c r="C13">
-        <v>5.145252851960167</v>
+        <v>7.849595946701411</v>
       </c>
       <c r="D13">
-        <v>10.12189675485669</v>
+        <v>9.069377577191636</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.95683364286668</v>
+        <v>27.00581343164144</v>
       </c>
       <c r="G13">
-        <v>3.66598764985401</v>
+        <v>2.089655739290965</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.40045779235468</v>
+        <v>7.40446614712644</v>
       </c>
       <c r="K13">
-        <v>10.03292735757153</v>
+        <v>13.66248527447766</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.37745611331802</v>
+        <v>14.64109995194822</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.69236207044458</v>
+        <v>18.20219962080571</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.00163028309934</v>
+        <v>15.7585023748544</v>
       </c>
       <c r="C14">
-        <v>5.120420154649394</v>
+        <v>7.800283051909417</v>
       </c>
       <c r="D14">
-        <v>10.11020230567946</v>
+        <v>9.005124294883462</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.95983016525068</v>
+        <v>26.92155960818518</v>
       </c>
       <c r="G14">
-        <v>3.666320383266941</v>
+        <v>2.090666598014339</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.40223460585149</v>
+        <v>7.388699103348201</v>
       </c>
       <c r="K14">
-        <v>9.998725660735694</v>
+        <v>13.55534359242836</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.35858917668302</v>
+        <v>14.5132419361522</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.70278670467616</v>
+        <v>18.18529854897313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.9710968792676</v>
+        <v>15.67335392136592</v>
       </c>
       <c r="C15">
-        <v>5.105137359016056</v>
+        <v>7.769937473984831</v>
       </c>
       <c r="D15">
-        <v>10.10306434626258</v>
+        <v>8.965625520846768</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.96182237238352</v>
+        <v>26.87038706046826</v>
       </c>
       <c r="G15">
-        <v>3.666525373784432</v>
+        <v>2.091287140273912</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.40335500753732</v>
+        <v>7.379121571472743</v>
       </c>
       <c r="K15">
-        <v>9.97774156526102</v>
+        <v>13.48933735624604</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.34707113924437</v>
+        <v>14.4344516623985</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.70927617506976</v>
+        <v>18.17533045774645</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.79488632092298</v>
+        <v>15.17723704930912</v>
       </c>
       <c r="C16">
-        <v>5.016467832394519</v>
+        <v>7.593906047553409</v>
       </c>
       <c r="D16">
-        <v>10.06255430654955</v>
+        <v>8.737132623370684</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.97564120205563</v>
+        <v>26.58377437811552</v>
       </c>
       <c r="G16">
-        <v>3.667718237086341</v>
+        <v>2.094864727999169</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.41026706201674</v>
+        <v>7.325458001440259</v>
       </c>
       <c r="K16">
-        <v>9.856993322193919</v>
+        <v>13.10526791487391</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.28166894267414</v>
+        <v>13.98779783043556</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.74805853748086</v>
+        <v>18.12398600844269</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.68573959285112</v>
+        <v>14.86556153062601</v>
       </c>
       <c r="C17">
-        <v>4.961115573426945</v>
+        <v>7.484028430817704</v>
       </c>
       <c r="D17">
-        <v>10.03806357760893</v>
+        <v>8.595086475446918</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.9862617425352</v>
+        <v>26.41382781644355</v>
       </c>
       <c r="G17">
-        <v>3.668466248020087</v>
+        <v>2.097079329295096</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.4149461607511</v>
+        <v>7.293617791123374</v>
       </c>
       <c r="K17">
-        <v>9.782511324372624</v>
+        <v>12.86445943348051</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.24209871623604</v>
+        <v>13.75937477511863</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.77327085693717</v>
+        <v>18.09752270286182</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.62259915271745</v>
+        <v>14.68358797082181</v>
       </c>
       <c r="C18">
-        <v>4.928933675116862</v>
+        <v>7.420142697181201</v>
       </c>
       <c r="D18">
-        <v>10.02411316811194</v>
+        <v>8.51271317322135</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.99315772463944</v>
+        <v>26.3182234368488</v>
       </c>
       <c r="G18">
-        <v>3.66890246229158</v>
+        <v>2.098360670591132</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.41779878244538</v>
+        <v>7.275697591550701</v>
       </c>
       <c r="K18">
-        <v>9.739536474613301</v>
+        <v>12.72404237482866</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.21954721205775</v>
+        <v>13.6268806642442</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.78829372805895</v>
+        <v>18.08410376781575</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.60116090923932</v>
+        <v>14.62150874185821</v>
       </c>
       <c r="C19">
-        <v>4.917978891594967</v>
+        <v>7.398394799159696</v>
       </c>
       <c r="D19">
-        <v>10.01941347698017</v>
+        <v>8.484709223454578</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.99562777751559</v>
+        <v>26.28622006503424</v>
       </c>
       <c r="G19">
-        <v>3.669051185079473</v>
+        <v>2.098795833467209</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.41879234618727</v>
+        <v>7.269697340833786</v>
       </c>
       <c r="K19">
-        <v>9.724964204649224</v>
+        <v>12.67617140596234</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.21194793480189</v>
+        <v>13.58183212638993</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.79346970387454</v>
+        <v>18.07986527443117</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.69739645118614</v>
+        <v>14.89901966546445</v>
       </c>
       <c r="C20">
-        <v>4.967043751674828</v>
+        <v>7.495796361277572</v>
       </c>
       <c r="D20">
-        <v>10.04065665682692</v>
+        <v>8.610277480753322</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.98504967505006</v>
+        <v>26.4316965894369</v>
       </c>
       <c r="G20">
-        <v>3.668386002588607</v>
+        <v>2.096842804412917</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.41443136753878</v>
+        <v>7.296966431726837</v>
       </c>
       <c r="K20">
-        <v>9.790454345684051</v>
+        <v>12.89029160681503</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.24628960323802</v>
+        <v>13.78380639668882</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.77053298335253</v>
+        <v>18.10015217262634</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.01624925514768</v>
+        <v>15.79918947193353</v>
       </c>
       <c r="C21">
-        <v>5.127729168781557</v>
+        <v>7.814796649956489</v>
       </c>
       <c r="D21">
-        <v>10.11363201066055</v>
+        <v>9.024026660946403</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.95891734690488</v>
+        <v>26.94621618638192</v>
       </c>
       <c r="G21">
-        <v>3.666222405213186</v>
+        <v>2.090369401981945</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.40170603355769</v>
+        <v>7.39331352469203</v>
       </c>
       <c r="K21">
-        <v>10.0087788102554</v>
+        <v>13.58689263561107</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.36412285956177</v>
+        <v>14.55089553497237</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.69970304311629</v>
+        <v>18.19018244789557</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.22094385870175</v>
+        <v>16.36372201225683</v>
       </c>
       <c r="C22">
-        <v>5.229539121740863</v>
+        <v>8.017032564678212</v>
       </c>
       <c r="D22">
-        <v>10.16246398292122</v>
+        <v>9.28813117573138</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.94885355578333</v>
+        <v>27.30192592068198</v>
       </c>
       <c r="G22">
-        <v>3.664861297927012</v>
+        <v>2.086200333014517</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.39482409168206</v>
+        <v>7.459863348998318</v>
       </c>
       <c r="K22">
-        <v>10.14995850422524</v>
+        <v>14.02519907806923</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.44287183466853</v>
+        <v>15.07365240119026</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.65806826591177</v>
+        <v>18.2660932047629</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.11205412344884</v>
+        <v>16.06458033496852</v>
       </c>
       <c r="C23">
-        <v>5.175500907383634</v>
+        <v>7.909672520496939</v>
       </c>
       <c r="D23">
-        <v>10.13630086147842</v>
+        <v>9.147763845722316</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.95358282691669</v>
+        <v>27.11028222807228</v>
       </c>
       <c r="G23">
-        <v>3.665582918275623</v>
+        <v>2.088420085494958</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.39836592779653</v>
+        <v>7.424013017335726</v>
       </c>
       <c r="K23">
-        <v>10.0747606699781</v>
+        <v>13.79281498099892</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.40068869844967</v>
+        <v>14.7965741697539</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.67986281037686</v>
+        <v>18.22396677247682</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.69212759658564</v>
+        <v>14.88390192748922</v>
       </c>
       <c r="C24">
-        <v>4.964364739391631</v>
+        <v>7.490478307334795</v>
       </c>
       <c r="D24">
-        <v>10.03948392111506</v>
+        <v>8.603411832050616</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.9855951897106</v>
+        <v>26.42361157959269</v>
       </c>
       <c r="G24">
-        <v>3.668422262317058</v>
+        <v>2.096949711904175</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.41466359921639</v>
+        <v>7.295451312485716</v>
       </c>
       <c r="K24">
-        <v>9.786863782424865</v>
+        <v>12.87861902723317</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.24439428536192</v>
+        <v>13.77276450110238</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.77176913152005</v>
+        <v>18.09895780915737</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.22565633456206</v>
+        <v>13.50673230363354</v>
       </c>
       <c r="C25">
-        <v>4.723544023047913</v>
+        <v>7.012177154652504</v>
       </c>
       <c r="D25">
-        <v>9.940290548344736</v>
+        <v>7.990843690795145</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.0502177608055</v>
+        <v>25.76463655127604</v>
       </c>
       <c r="G25">
-        <v>3.671713704284216</v>
+        <v>2.1064422702718</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.43841164621968</v>
+        <v>7.171768113507683</v>
       </c>
       <c r="K25">
-        <v>9.471370387055767</v>
+        <v>11.81951765998613</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.08383033679718</v>
+        <v>12.7868782397824</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.89083039504157</v>
+        <v>18.03240006021065</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.40192139937965</v>
+        <v>21.36791759869241</v>
       </c>
       <c r="C2">
-        <v>6.638539649259521</v>
+        <v>16.35071754158356</v>
       </c>
       <c r="D2">
-        <v>7.520318263474689</v>
+        <v>4.254646276501689</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.34723527409341</v>
+        <v>23.6047508335352</v>
       </c>
       <c r="G2">
-        <v>2.113711871725651</v>
+        <v>32.62304714388959</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.410304284134584</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.727653023939198</v>
       </c>
       <c r="J2">
-        <v>7.093112917190068</v>
+        <v>10.724390327003</v>
       </c>
       <c r="K2">
-        <v>10.97701943844459</v>
+        <v>16.87293320901933</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.02843347844709</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.19771452729682</v>
       </c>
       <c r="O2">
-        <v>18.03653358244588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.81676465294028</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.59579795074456</v>
+        <v>19.95435911171704</v>
       </c>
       <c r="C3">
-        <v>6.372661616107392</v>
+        <v>15.47960730481052</v>
       </c>
       <c r="D3">
-        <v>7.190891173641194</v>
+        <v>4.201436332869153</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.10511708340293</v>
+        <v>22.7933853590301</v>
       </c>
       <c r="G3">
-        <v>2.118826821513111</v>
+        <v>31.3572148890837</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.63734764243609</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.93867299281291</v>
       </c>
       <c r="J3">
-        <v>7.047285386589228</v>
+        <v>10.59666891667996</v>
       </c>
       <c r="K3">
-        <v>10.36731541066248</v>
+        <v>16.81562348277848</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.49663314648854</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.006024645222773</v>
       </c>
       <c r="O3">
-        <v>18.06967257136641</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.16898643771758</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.07232807543934</v>
+        <v>19.03384282776689</v>
       </c>
       <c r="C4">
-        <v>6.203486570204353</v>
+        <v>14.92286763537913</v>
       </c>
       <c r="D4">
-        <v>6.984101680428722</v>
+        <v>4.16814158327146</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.97595191027907</v>
+        <v>22.29126522575822</v>
       </c>
       <c r="G4">
-        <v>2.122064426844891</v>
+        <v>30.56827675774726</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.781324408527126</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.073283346738421</v>
       </c>
       <c r="J4">
-        <v>7.022739353913378</v>
+        <v>10.52145553823208</v>
       </c>
       <c r="K4">
-        <v>9.974094886220698</v>
+        <v>16.78465690356579</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.16239693953733</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.885174540943156</v>
       </c>
       <c r="O4">
-        <v>18.1040568119405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.75398829750159</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.85181810663646</v>
+        <v>18.64525153345462</v>
       </c>
       <c r="C5">
-        <v>6.133114066268587</v>
+        <v>14.69969522036766</v>
       </c>
       <c r="D5">
-        <v>6.898816575685133</v>
+        <v>4.155702423595718</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.92811830306234</v>
+        <v>22.06899170187458</v>
       </c>
       <c r="G5">
-        <v>2.12340874456463</v>
+        <v>30.21354408436589</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.841521982884843</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.132296458973776</v>
       </c>
       <c r="J5">
-        <v>7.013624928092378</v>
+        <v>10.48587204793106</v>
       </c>
       <c r="K5">
-        <v>9.809166114708063</v>
+        <v>16.76117187655368</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.02444326208662</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.834857200384441</v>
       </c>
       <c r="O5">
-        <v>18.12146191410648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.58071220263842</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.81476765592801</v>
+        <v>18.57968936931274</v>
       </c>
       <c r="C6">
-        <v>6.121344111216409</v>
+        <v>14.6735001629753</v>
       </c>
       <c r="D6">
-        <v>6.884597454607889</v>
+        <v>4.155209891667033</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.92046245958854</v>
+        <v>22.01133275767734</v>
       </c>
       <c r="G6">
-        <v>2.123633491796497</v>
+        <v>30.116926170624</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.852020371841794</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.145869735397065</v>
       </c>
       <c r="J6">
-        <v>7.012164673878319</v>
+        <v>10.47299934686687</v>
       </c>
       <c r="K6">
-        <v>9.781498578209884</v>
+        <v>16.74281978257725</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.00143650099005</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.826086993476105</v>
       </c>
       <c r="O6">
-        <v>18.12455300346698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.55173813946332</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.06938334712708</v>
+        <v>19.02803041648739</v>
       </c>
       <c r="C7">
-        <v>6.202543218917975</v>
+        <v>14.949905786227</v>
       </c>
       <c r="D7">
-        <v>6.98295544230429</v>
+        <v>4.172321034387073</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.97528750619178</v>
+        <v>22.23235450750888</v>
       </c>
       <c r="G7">
-        <v>2.122082454949977</v>
+        <v>30.46222619737626</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.783287717934791</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.083903389942907</v>
       </c>
       <c r="J7">
-        <v>7.022612857604845</v>
+        <v>10.50190794412267</v>
       </c>
       <c r="K7">
-        <v>9.971889497678216</v>
+        <v>16.74477183254524</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.16054326421733</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.883514070494412</v>
       </c>
       <c r="O7">
-        <v>18.10427798318568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.75178603186047</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.12987074956041</v>
+        <v>20.89061604221046</v>
       </c>
       <c r="C8">
-        <v>6.5481264697678</v>
+        <v>16.09238279476702</v>
       </c>
       <c r="D8">
-        <v>7.407736964730696</v>
+        <v>4.242310544391628</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.25964961636469</v>
+        <v>23.25510382306341</v>
       </c>
       <c r="G8">
-        <v>2.115455727039884</v>
+        <v>32.06158185812673</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.489091169023335</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.812205827622345</v>
       </c>
       <c r="J8">
-        <v>7.076557299823769</v>
+        <v>10.65490685154951</v>
       </c>
       <c r="K8">
-        <v>10.77073533802685</v>
+        <v>16.80037180247501</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.84677392852227</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.13109036634936</v>
       </c>
       <c r="O8">
-        <v>18.04496407159264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.59717717494782</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.98463347536635</v>
+        <v>24.12975984961746</v>
       </c>
       <c r="C9">
-        <v>7.176708571258692</v>
+        <v>18.10798996085508</v>
       </c>
       <c r="D9">
-        <v>8.200398472092388</v>
+        <v>4.366565699529565</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.97590048943665</v>
+        <v>25.31307201008915</v>
       </c>
       <c r="G9">
-        <v>2.103203017449403</v>
+        <v>35.25793272852128</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.945470099872824</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.648920328916093</v>
       </c>
       <c r="J9">
-        <v>7.211469615953514</v>
+        <v>11.01392077970764</v>
       </c>
       <c r="K9">
-        <v>12.18603917856523</v>
+        <v>17.01519146338688</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.12431123515232</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.592160094171894</v>
       </c>
       <c r="O9">
-        <v>18.04619094205869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.11305553894755</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.21243575838621</v>
+        <v>26.28319639279497</v>
       </c>
       <c r="C10">
-        <v>7.606350237486523</v>
+        <v>19.6108303468282</v>
       </c>
       <c r="D10">
-        <v>8.753248783108326</v>
+        <v>4.480033143025029</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.60345827961498</v>
+        <v>26.53578922320627</v>
       </c>
       <c r="G10">
-        <v>2.094613032504296</v>
+        <v>37.07409799200089</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.601700900962012</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.988849737247694</v>
       </c>
       <c r="J10">
-        <v>7.329144772764809</v>
+        <v>11.19956066516825</v>
       </c>
       <c r="K10">
-        <v>13.13248705420452</v>
+        <v>16.9956996450886</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.01371006535119</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.790858816844083</v>
       </c>
       <c r="O10">
-        <v>18.12725333569573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.03939540360354</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.74225087583702</v>
+        <v>27.40330795033952</v>
       </c>
       <c r="C11">
-        <v>7.794488342967759</v>
+        <v>21.34313673540012</v>
       </c>
       <c r="D11">
-        <v>8.997579304913522</v>
+        <v>4.76978855551826</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.91174805792009</v>
+        <v>25.0551873819341</v>
       </c>
       <c r="G11">
-        <v>2.090785183363915</v>
+        <v>34.28236189720933</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.664958043882033</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.102126511905362</v>
       </c>
       <c r="J11">
-        <v>7.386862833879909</v>
+        <v>10.52567561214219</v>
       </c>
       <c r="K11">
-        <v>13.54274365851365</v>
+        <v>15.38332002474551</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.49820294200209</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.928971411170223</v>
       </c>
       <c r="O11">
-        <v>18.18336964291673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.61542739066908</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.93879648534214</v>
+        <v>27.91705275817563</v>
       </c>
       <c r="C12">
-        <v>7.864660973628393</v>
+        <v>22.49721321640107</v>
       </c>
       <c r="D12">
-        <v>9.089022950586291</v>
+        <v>5.018997063635915</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.03182258326285</v>
+        <v>23.59763590310027</v>
       </c>
       <c r="G12">
-        <v>2.089346312977677</v>
+        <v>31.63481441828128</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.085976800139323</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.129543531609395</v>
       </c>
       <c r="J12">
-        <v>7.409332958095746</v>
+        <v>9.939723316230696</v>
       </c>
       <c r="K12">
-        <v>13.69518745512525</v>
+        <v>14.13154321596716</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.68011694599439</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.345226485177409</v>
       </c>
       <c r="O12">
-        <v>18.20753649640645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.05589618594387</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.89664774021858</v>
+        <v>28.011677722118</v>
       </c>
       <c r="C13">
-        <v>7.849595946701411</v>
+        <v>23.34038296003843</v>
       </c>
       <c r="D13">
-        <v>9.069377577191636</v>
+        <v>5.253757460786322</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.00581343164144</v>
+        <v>21.95488869282013</v>
       </c>
       <c r="G13">
-        <v>2.089655739290965</v>
+        <v>28.72703744011407</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.53199695502597</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.096020856053348</v>
       </c>
       <c r="J13">
-        <v>7.40446614712644</v>
+        <v>9.353623542054091</v>
       </c>
       <c r="K13">
-        <v>13.66248527447766</v>
+        <v>13.04363890904474</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.64109995194822</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.983180999708879</v>
       </c>
       <c r="O13">
-        <v>18.20219962080571</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.34318514550257</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.7585023748544</v>
+        <v>27.89015362814354</v>
       </c>
       <c r="C14">
-        <v>7.800283051909417</v>
+        <v>23.81113451020963</v>
       </c>
       <c r="D14">
-        <v>9.005124294883462</v>
+        <v>5.41574636026876</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.92155960818518</v>
+        <v>20.69076928108672</v>
       </c>
       <c r="G14">
-        <v>2.090666598014339</v>
+        <v>26.51589258621119</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.551792965864924</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.046463143101279</v>
       </c>
       <c r="J14">
-        <v>7.388699103348201</v>
+        <v>8.940269724542093</v>
       </c>
       <c r="K14">
-        <v>13.55534359242836</v>
+        <v>12.38095635326738</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.5132419361522</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.884403142814602</v>
       </c>
       <c r="O14">
-        <v>18.18529854897313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.76611524902463</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.67335392136592</v>
+        <v>27.76978703747794</v>
       </c>
       <c r="C15">
-        <v>7.769937473984831</v>
+        <v>23.86811038142851</v>
       </c>
       <c r="D15">
-        <v>8.965625520846768</v>
+        <v>5.450830853201254</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.87038706046826</v>
+        <v>20.32473553218031</v>
       </c>
       <c r="G15">
-        <v>2.091287140273912</v>
+        <v>25.88710014764008</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.789332230196933</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.021843640293893</v>
       </c>
       <c r="J15">
-        <v>7.379121571472743</v>
+        <v>8.834636586720451</v>
       </c>
       <c r="K15">
-        <v>13.48933735624604</v>
+        <v>12.24254076343632</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.4344516623985</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.879281333689447</v>
       </c>
       <c r="O15">
-        <v>18.17533045774645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.59221261260489</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17723704930912</v>
+        <v>26.88388911614363</v>
       </c>
       <c r="C16">
-        <v>7.593906047553409</v>
+        <v>23.15821442554292</v>
       </c>
       <c r="D16">
-        <v>8.737132623370684</v>
+        <v>5.357319010631945</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.58377437811552</v>
+        <v>20.00558241496501</v>
       </c>
       <c r="G16">
-        <v>2.094864727999169</v>
+        <v>25.45129411616597</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.594699141285328</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.884924641141148</v>
       </c>
       <c r="J16">
-        <v>7.325458001440259</v>
+        <v>8.852915713776042</v>
       </c>
       <c r="K16">
-        <v>13.10526791487391</v>
+        <v>12.46930117027277</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.98779783043556</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.848117539441811</v>
       </c>
       <c r="O16">
-        <v>18.12398600844269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.30675763544225</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.86556153062601</v>
+        <v>26.25565448323898</v>
       </c>
       <c r="C17">
-        <v>7.484028430817704</v>
+        <v>22.3373951134922</v>
       </c>
       <c r="D17">
-        <v>8.595086475446918</v>
+        <v>5.195677323259845</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.41382781644355</v>
+        <v>20.4589227098344</v>
       </c>
       <c r="G17">
-        <v>2.097079329295096</v>
+        <v>26.34352411203755</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.874796479156319</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.806281485602583</v>
       </c>
       <c r="J17">
-        <v>7.293617791123374</v>
+        <v>9.087095929439185</v>
       </c>
       <c r="K17">
-        <v>12.86445943348051</v>
+        <v>12.97202016258363</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.75937477511863</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.850284830031241</v>
       </c>
       <c r="O17">
-        <v>18.09752270286182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.40517957539863</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68358797082181</v>
+        <v>25.79217436033446</v>
       </c>
       <c r="C18">
-        <v>7.420142697181201</v>
+        <v>21.3221972201525</v>
       </c>
       <c r="D18">
-        <v>8.51271317322135</v>
+        <v>4.963612696329637</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.3182234368488</v>
+        <v>21.66198802819174</v>
       </c>
       <c r="G18">
-        <v>2.098360670591132</v>
+        <v>28.54111859285204</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.647252288674704</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.768343399491463</v>
       </c>
       <c r="J18">
-        <v>7.275697591550701</v>
+        <v>9.54912889907833</v>
       </c>
       <c r="K18">
-        <v>12.72404237482866</v>
+        <v>13.85129165696729</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.6268806642442</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.029029430926711</v>
       </c>
       <c r="O18">
-        <v>18.08410376781575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.84637281231712</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.62150874185821</v>
+        <v>25.5042656777999</v>
       </c>
       <c r="C19">
-        <v>7.398394799159696</v>
+        <v>20.31120558868581</v>
       </c>
       <c r="D19">
-        <v>8.484709223454578</v>
+        <v>4.727304084606017</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.28622006503424</v>
+        <v>23.27141077654575</v>
       </c>
       <c r="G19">
-        <v>2.098795833467209</v>
+        <v>31.43179129126335</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.201473403932235</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.779654816274359</v>
       </c>
       <c r="J19">
-        <v>7.269697340833786</v>
+        <v>10.13470086284019</v>
       </c>
       <c r="K19">
-        <v>12.67617140596234</v>
+        <v>14.99266490849193</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.58183212638993</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.527100890343786</v>
       </c>
       <c r="O19">
-        <v>18.07986527443117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.52185402329599</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.89901966546445</v>
+        <v>25.73391995771074</v>
       </c>
       <c r="C20">
-        <v>7.495796361277572</v>
+        <v>19.3066777827564</v>
       </c>
       <c r="D20">
-        <v>8.610277480753322</v>
+        <v>4.466137349637669</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.4316965894369</v>
+        <v>26.05772295895346</v>
       </c>
       <c r="G20">
-        <v>2.096842804412917</v>
+        <v>36.31830524450377</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.692723365319882</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.910160210629749</v>
       </c>
       <c r="J20">
-        <v>7.296966431726837</v>
+        <v>11.09063274282713</v>
       </c>
       <c r="K20">
-        <v>12.89029160681503</v>
+        <v>16.87280854407134</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.78380639668882</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.731412207894676</v>
       </c>
       <c r="O20">
-        <v>18.10015217262634</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.79746626337974</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.79918947193353</v>
+        <v>27.27428009030855</v>
       </c>
       <c r="C21">
-        <v>7.814796649956489</v>
+        <v>20.2221574466612</v>
       </c>
       <c r="D21">
-        <v>9.024026660946403</v>
+        <v>4.513509899789295</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.94621618638192</v>
+        <v>27.37281213547917</v>
       </c>
       <c r="G21">
-        <v>2.090369401981945</v>
+        <v>38.37894141677119</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.735011256690548</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.172919480935663</v>
       </c>
       <c r="J21">
-        <v>7.39331352469203</v>
+        <v>11.38327494639785</v>
       </c>
       <c r="K21">
-        <v>13.58689263561107</v>
+        <v>17.17718116554049</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.55089553497237</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.069731694647615</v>
       </c>
       <c r="O21">
-        <v>18.19018244789557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.62776347476534</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.36372201225683</v>
+        <v>28.24936863504684</v>
       </c>
       <c r="C22">
-        <v>8.017032564678212</v>
+        <v>20.83281038411992</v>
       </c>
       <c r="D22">
-        <v>9.28813117573138</v>
+        <v>4.549686147324907</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.30192592068198</v>
+        <v>28.16265240635661</v>
       </c>
       <c r="G22">
-        <v>2.086200333014517</v>
+        <v>39.59886679550858</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.915389430333166</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.336377884174296</v>
       </c>
       <c r="J22">
-        <v>7.459863348998318</v>
+        <v>11.5559134779783</v>
       </c>
       <c r="K22">
-        <v>14.02519907806923</v>
+        <v>17.33641541586586</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.07365240119026</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.225259530096677</v>
       </c>
       <c r="O22">
-        <v>18.2660932047629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.10342849352867</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.06458033496852</v>
+        <v>27.73355848000266</v>
       </c>
       <c r="C23">
-        <v>7.909672520496939</v>
+        <v>20.48120399884525</v>
       </c>
       <c r="D23">
-        <v>9.147763845722316</v>
+        <v>4.524910901077298</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.11028222807228</v>
+        <v>27.79543563389625</v>
       </c>
       <c r="G23">
-        <v>2.088420085494958</v>
+        <v>39.04428320331637</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.820420178156536</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.24582453050695</v>
       </c>
       <c r="J23">
-        <v>7.424013017335726</v>
+        <v>11.48385869060323</v>
       </c>
       <c r="K23">
-        <v>13.79281498099892</v>
+        <v>17.29512247391978</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.7965741697539</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.143375713064156</v>
       </c>
       <c r="O23">
-        <v>18.22396677247682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.85117085216268</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.88390192748922</v>
+        <v>25.69084052930318</v>
       </c>
       <c r="C24">
-        <v>7.490478307334795</v>
+        <v>19.15211620847663</v>
       </c>
       <c r="D24">
-        <v>8.603411832050616</v>
+        <v>4.438493246453842</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.42361157959269</v>
+        <v>26.30451708209025</v>
       </c>
       <c r="G24">
-        <v>2.096949711904175</v>
+        <v>36.76217629720325</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.67064481273188</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.903714509696696</v>
       </c>
       <c r="J24">
-        <v>7.295451312485716</v>
+        <v>11.18577077610769</v>
       </c>
       <c r="K24">
-        <v>12.87861902723317</v>
+        <v>17.0819294435223</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.77276450110238</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.825405242066048</v>
       </c>
       <c r="O24">
-        <v>18.09895780915737</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.86067653324064</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.50673230363354</v>
+        <v>23.29643025839528</v>
       </c>
       <c r="C25">
-        <v>7.012177154652504</v>
+        <v>17.62895868786408</v>
       </c>
       <c r="D25">
-        <v>7.990843690795145</v>
+        <v>4.341755965190111</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.76463655127604</v>
+        <v>24.67137777677961</v>
       </c>
       <c r="G25">
-        <v>2.1064422702718</v>
+        <v>34.24451552216244</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.090734771856957</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.52554277617506</v>
       </c>
       <c r="J25">
-        <v>7.171768113507683</v>
+        <v>10.88113557072815</v>
       </c>
       <c r="K25">
-        <v>11.81951765998613</v>
+        <v>16.88313601436504</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.7868782397824</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.468870913507623</v>
       </c>
       <c r="O25">
-        <v>18.03240006021065</v>
+        <v>13.71881301323291</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.36791759869241</v>
+        <v>21.40708649877289</v>
       </c>
       <c r="C2">
-        <v>16.35071754158356</v>
+        <v>16.85366584282509</v>
       </c>
       <c r="D2">
-        <v>4.254646276501689</v>
+        <v>4.343413684695988</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.6047508335352</v>
+        <v>22.160551602909</v>
       </c>
       <c r="G2">
-        <v>32.62304714388959</v>
+        <v>29.51759619667014</v>
       </c>
       <c r="H2">
-        <v>2.410304284134584</v>
+        <v>2.339738403865957</v>
       </c>
       <c r="I2">
-        <v>2.727653023939198</v>
+        <v>2.642536949404935</v>
       </c>
       <c r="J2">
-        <v>10.724390327003</v>
+        <v>10.65989495236584</v>
       </c>
       <c r="K2">
-        <v>16.87293320901933</v>
+        <v>15.66723376942054</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.17763440680303</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.06233134882214</v>
       </c>
       <c r="N2">
-        <v>7.19771452729682</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.81676465294028</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.256294331574746</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.81197259040848</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.95435911171704</v>
+        <v>20.00503313497222</v>
       </c>
       <c r="C3">
-        <v>15.47960730481052</v>
+        <v>15.8691046575722</v>
       </c>
       <c r="D3">
-        <v>4.201436332869153</v>
+        <v>4.251733907292495</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.7933853590301</v>
+        <v>21.51360679154134</v>
       </c>
       <c r="G3">
-        <v>31.3572148890837</v>
+        <v>28.55087121205535</v>
       </c>
       <c r="H3">
-        <v>2.63734764243609</v>
+        <v>2.545825095819597</v>
       </c>
       <c r="I3">
-        <v>2.93867299281291</v>
+        <v>2.826522986360875</v>
       </c>
       <c r="J3">
-        <v>10.59666891667996</v>
+        <v>10.553535823099</v>
       </c>
       <c r="K3">
-        <v>16.81562348277848</v>
+        <v>15.72848061465147</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.30724669399971</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.02966196514919</v>
       </c>
       <c r="N3">
-        <v>7.006024645222773</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.16898643771758</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.083287763306452</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.16096166607367</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.03384282776689</v>
+        <v>19.09185284256974</v>
       </c>
       <c r="C4">
-        <v>14.92286763537913</v>
+        <v>15.23832494307804</v>
       </c>
       <c r="D4">
-        <v>4.16814158327146</v>
+        <v>4.194687850656835</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.29126522575822</v>
+        <v>21.11394296495597</v>
       </c>
       <c r="G4">
-        <v>30.56827675774726</v>
+        <v>27.95466676266403</v>
       </c>
       <c r="H4">
-        <v>2.781324408527126</v>
+        <v>2.676597955288663</v>
       </c>
       <c r="I4">
-        <v>3.073283346738421</v>
+        <v>2.944291230993295</v>
       </c>
       <c r="J4">
-        <v>10.52145553823208</v>
+        <v>10.48834543285961</v>
       </c>
       <c r="K4">
-        <v>16.78465690356579</v>
+        <v>15.76893262013139</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.38554779822792</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.03099531190733</v>
       </c>
       <c r="N4">
-        <v>6.885174540943156</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.75398829750159</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.974551044309421</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.74340320681456</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64525153345462</v>
+        <v>18.70634056724816</v>
       </c>
       <c r="C5">
-        <v>14.69969522036766</v>
+        <v>14.98372037901148</v>
       </c>
       <c r="D5">
-        <v>4.155702423595718</v>
+        <v>4.172750363430727</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.06899170187458</v>
+        <v>20.93530520244488</v>
       </c>
       <c r="G5">
-        <v>30.21354408436589</v>
+        <v>27.6831986448631</v>
       </c>
       <c r="H5">
-        <v>2.841521982884843</v>
+        <v>2.731301871793039</v>
       </c>
       <c r="I5">
-        <v>3.132296458973776</v>
+        <v>2.996847824136684</v>
       </c>
       <c r="J5">
-        <v>10.48587204793106</v>
+        <v>10.45675933974838</v>
       </c>
       <c r="K5">
-        <v>16.76117187655368</v>
+        <v>15.77594787041182</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.40838173042163</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.03032836871691</v>
       </c>
       <c r="N5">
-        <v>6.834857200384441</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.58071220263842</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.929351519013894</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.56893424112858</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.57968936931274</v>
+        <v>18.64130023126507</v>
       </c>
       <c r="C6">
-        <v>14.6735001629753</v>
+        <v>14.95200788378794</v>
       </c>
       <c r="D6">
-        <v>4.155209891667033</v>
+        <v>4.170924984694411</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.01133275767734</v>
+        <v>20.88688511643792</v>
       </c>
       <c r="G6">
-        <v>30.116926170624</v>
+        <v>27.60377039933385</v>
       </c>
       <c r="H6">
-        <v>2.852020371841794</v>
+        <v>2.740852837732312</v>
       </c>
       <c r="I6">
-        <v>3.145869735397065</v>
+        <v>3.00997067152826</v>
       </c>
       <c r="J6">
-        <v>10.47299934686687</v>
+        <v>10.44534008224773</v>
       </c>
       <c r="K6">
-        <v>16.74281978257725</v>
+        <v>15.76478023491875</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.40147469855717</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.02256213590337</v>
       </c>
       <c r="N6">
-        <v>6.826086993476105</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.55173813946332</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.921465049415334</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.53974930676993</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.02803041648739</v>
+        <v>19.08578510869365</v>
       </c>
       <c r="C7">
-        <v>14.949905786227</v>
+        <v>15.25444587597637</v>
       </c>
       <c r="D7">
-        <v>4.172321034387073</v>
+        <v>4.20271693765901</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.23235450750888</v>
+        <v>21.0305617533586</v>
       </c>
       <c r="G7">
-        <v>30.46222619737626</v>
+        <v>27.92655780752927</v>
       </c>
       <c r="H7">
-        <v>2.783287717934791</v>
+        <v>2.678959205506054</v>
       </c>
       <c r="I7">
-        <v>3.083903389942907</v>
+        <v>2.957164716838654</v>
       </c>
       <c r="J7">
-        <v>10.50190794412267</v>
+        <v>10.41741989193454</v>
       </c>
       <c r="K7">
-        <v>16.74477183254524</v>
+        <v>15.72095125847211</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.34501666565633</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.999083127185724</v>
       </c>
       <c r="N7">
-        <v>6.883514070494412</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.75178603186047</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.972551993468043</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.74123108583419</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.89061604221046</v>
+        <v>20.93277837639565</v>
       </c>
       <c r="C8">
-        <v>16.09238279476702</v>
+        <v>16.52567734110964</v>
       </c>
       <c r="D8">
-        <v>4.242310544391628</v>
+        <v>4.32993079606567</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.25510382306341</v>
+        <v>21.77707251663367</v>
       </c>
       <c r="G8">
-        <v>32.06158185812673</v>
+        <v>29.28636569100217</v>
       </c>
       <c r="H8">
-        <v>2.489091169023335</v>
+        <v>2.412970515623188</v>
       </c>
       <c r="I8">
-        <v>2.812205827622345</v>
+        <v>2.722089645524659</v>
       </c>
       <c r="J8">
-        <v>10.65490685154951</v>
+        <v>10.42684990666356</v>
       </c>
       <c r="K8">
-        <v>16.80037180247501</v>
+        <v>15.59674899306605</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.14979257743339</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.980576823969967</v>
       </c>
       <c r="N8">
-        <v>7.13109036634936</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.59717717494782</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.194634931450425</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.59150598854409</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.12975984961746</v>
+        <v>24.14389481978365</v>
       </c>
       <c r="C9">
-        <v>18.10798996085508</v>
+        <v>18.7954132309362</v>
       </c>
       <c r="D9">
-        <v>4.366565699529565</v>
+        <v>4.551315058793461</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.31307201008915</v>
+        <v>23.41311352704426</v>
       </c>
       <c r="G9">
-        <v>35.25793272852128</v>
+        <v>31.82446544691032</v>
       </c>
       <c r="H9">
-        <v>1.945470099872824</v>
+        <v>1.920341226111748</v>
       </c>
       <c r="I9">
-        <v>2.648920328916093</v>
+        <v>2.681627095257658</v>
       </c>
       <c r="J9">
-        <v>11.01392077970764</v>
+        <v>10.66982377111118</v>
       </c>
       <c r="K9">
-        <v>17.01519146338688</v>
+        <v>15.48970715795993</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.84749795955993</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.19507842781626</v>
       </c>
       <c r="N9">
-        <v>7.592160094171894</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.11305553894755</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.612346922245526</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.11225688086224</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.28319639279497</v>
+        <v>26.27588811869596</v>
       </c>
       <c r="C10">
-        <v>19.6108303468282</v>
+        <v>20.40276918432568</v>
       </c>
       <c r="D10">
-        <v>4.480033143025029</v>
+        <v>4.756106228525494</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.53578922320627</v>
+        <v>24.23378563831384</v>
       </c>
       <c r="G10">
-        <v>37.07409799200089</v>
+        <v>33.62400146549322</v>
       </c>
       <c r="H10">
-        <v>1.601700900962012</v>
+        <v>1.614387145875335</v>
       </c>
       <c r="I10">
-        <v>2.988849737247694</v>
+        <v>2.976408109719042</v>
       </c>
       <c r="J10">
-        <v>11.19956066516825</v>
+        <v>10.48834208235952</v>
       </c>
       <c r="K10">
-        <v>16.9956996450886</v>
+        <v>15.19611308072073</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.45798452446432</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.26131961219795</v>
       </c>
       <c r="N10">
-        <v>7.790858816844083</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.03939540360354</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.780715994066862</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.03949847568761</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.40330795033952</v>
+        <v>27.38773052582334</v>
       </c>
       <c r="C11">
-        <v>21.34313673540012</v>
+        <v>21.96666385279068</v>
       </c>
       <c r="D11">
-        <v>4.76978855551826</v>
+        <v>5.127679761638058</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.0551873819341</v>
+        <v>22.67514752595378</v>
       </c>
       <c r="G11">
-        <v>34.28236189720933</v>
+        <v>32.01960533852522</v>
       </c>
       <c r="H11">
-        <v>2.664958043882033</v>
+        <v>2.681270752569015</v>
       </c>
       <c r="I11">
-        <v>3.102126511905362</v>
+        <v>3.074377044849191</v>
       </c>
       <c r="J11">
-        <v>10.52567561214219</v>
+        <v>9.380193010548957</v>
       </c>
       <c r="K11">
-        <v>15.38332002474551</v>
+        <v>13.738181609336</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.40872419273447</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.160171590283598</v>
       </c>
       <c r="N11">
-        <v>6.928971411170223</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.61542739066908</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.905323455473185</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.6158907406555</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.91705275817563</v>
+        <v>27.89931539649707</v>
       </c>
       <c r="C12">
-        <v>22.49721321640107</v>
+        <v>22.97069435345482</v>
       </c>
       <c r="D12">
-        <v>5.018997063635915</v>
+        <v>5.402858972592568</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.59763590310027</v>
+        <v>21.32375113736737</v>
       </c>
       <c r="G12">
-        <v>31.63481441828128</v>
+        <v>30.16415015405184</v>
       </c>
       <c r="H12">
-        <v>4.085976800139323</v>
+        <v>4.098393512298686</v>
       </c>
       <c r="I12">
-        <v>3.129543531609395</v>
+        <v>3.096995165841288</v>
       </c>
       <c r="J12">
-        <v>9.939723316230696</v>
+        <v>8.714600691393635</v>
       </c>
       <c r="K12">
-        <v>14.13154321596716</v>
+        <v>12.73394075491118</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.75187028024734</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.311882558066353</v>
       </c>
       <c r="N12">
-        <v>6.345226485177409</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.05589618594387</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.316461726443789</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.05681409961625</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.011677722118</v>
+        <v>27.99683785642094</v>
       </c>
       <c r="C13">
-        <v>23.34038296003843</v>
+        <v>23.68856526363128</v>
       </c>
       <c r="D13">
-        <v>5.253757460786322</v>
+        <v>5.609410087479574</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.95488869282013</v>
+        <v>20.01258448511891</v>
       </c>
       <c r="G13">
-        <v>28.72703744011407</v>
+        <v>27.66403633564609</v>
       </c>
       <c r="H13">
-        <v>5.53199695502597</v>
+        <v>5.540025105728462</v>
       </c>
       <c r="I13">
-        <v>3.096020856053348</v>
+        <v>3.069250763654602</v>
       </c>
       <c r="J13">
-        <v>9.353623542054091</v>
+        <v>8.388451457922786</v>
       </c>
       <c r="K13">
-        <v>13.04363890904474</v>
+        <v>11.99855614977609</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.31140191594538</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.609002030489208</v>
       </c>
       <c r="N13">
-        <v>5.983180999708879</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.34318514550257</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.958123703862352</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.34439909931629</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.89015362814354</v>
+        <v>27.87949298393827</v>
       </c>
       <c r="C14">
-        <v>23.81113451020963</v>
+        <v>24.08015231592311</v>
       </c>
       <c r="D14">
-        <v>5.41574636026876</v>
+        <v>5.725130137423628</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.69076928108672</v>
+        <v>19.08401469032579</v>
       </c>
       <c r="G14">
-        <v>26.51589258621119</v>
+        <v>25.57466763945428</v>
       </c>
       <c r="H14">
-        <v>6.551792965864924</v>
+        <v>6.556857348849745</v>
       </c>
       <c r="I14">
-        <v>3.046463143101279</v>
+        <v>3.028695876042576</v>
       </c>
       <c r="J14">
-        <v>8.940269724542093</v>
+        <v>8.286767063557628</v>
       </c>
       <c r="K14">
-        <v>12.38095635326738</v>
+        <v>11.60963299873277</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.09122785123019</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.196974335050879</v>
       </c>
       <c r="N14">
-        <v>5.884403142814602</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>12.76611524902463</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.866299167144708</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.76726405540043</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.76978703747794</v>
+        <v>27.76125037821636</v>
       </c>
       <c r="C15">
-        <v>23.86811038142851</v>
+        <v>24.12266621837324</v>
       </c>
       <c r="D15">
-        <v>5.450830853201254</v>
+        <v>5.738967146806627</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.32473553218031</v>
+        <v>18.84458149801445</v>
       </c>
       <c r="G15">
-        <v>25.88710014764008</v>
+        <v>24.90699917381743</v>
       </c>
       <c r="H15">
-        <v>6.789332230196933</v>
+        <v>6.793315259968241</v>
       </c>
       <c r="I15">
-        <v>3.021843640293893</v>
+        <v>3.009151431869409</v>
       </c>
       <c r="J15">
-        <v>8.834636586720451</v>
+        <v>8.31126071781887</v>
       </c>
       <c r="K15">
-        <v>12.24254076343632</v>
+        <v>11.55028124996425</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.05992620928046</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.119533972755418</v>
       </c>
       <c r="N15">
-        <v>5.879281333689447</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>12.59221261260489</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.864799614509022</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.59320424325456</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.88388911614363</v>
+        <v>26.88585064353835</v>
       </c>
       <c r="C16">
-        <v>23.15821442554292</v>
+        <v>23.46260172243827</v>
       </c>
       <c r="D16">
-        <v>5.357319010631945</v>
+        <v>5.568803378369115</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.00558241496501</v>
+        <v>18.87905018694445</v>
       </c>
       <c r="G16">
-        <v>25.45129411616597</v>
+        <v>23.88677776679362</v>
       </c>
       <c r="H16">
-        <v>6.594699141285328</v>
+        <v>6.593671914696773</v>
       </c>
       <c r="I16">
-        <v>2.884924641141148</v>
+        <v>2.89545395408771</v>
       </c>
       <c r="J16">
-        <v>8.852915713776042</v>
+        <v>8.784323377870628</v>
       </c>
       <c r="K16">
-        <v>12.46930117027277</v>
+        <v>11.88231475461054</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.27343721388667</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.343432802353618</v>
       </c>
       <c r="N16">
-        <v>5.848117539441811</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.30675763544225</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.851482864361503</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.30649617592844</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.25565448323898</v>
+        <v>26.26317000218033</v>
       </c>
       <c r="C17">
-        <v>22.3373951134922</v>
+        <v>22.71153288948655</v>
       </c>
       <c r="D17">
-        <v>5.195677323259845</v>
+        <v>5.383559083341112</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.4589227098344</v>
+        <v>19.38148453031692</v>
       </c>
       <c r="G17">
-        <v>26.34352411203755</v>
+        <v>24.35660195101099</v>
       </c>
       <c r="H17">
-        <v>5.874796479156319</v>
+        <v>5.870179255497092</v>
       </c>
       <c r="I17">
-        <v>2.806281485602583</v>
+        <v>2.829322484076407</v>
       </c>
       <c r="J17">
-        <v>9.087095929439185</v>
+        <v>9.165309438028487</v>
       </c>
       <c r="K17">
-        <v>12.97202016258363</v>
+        <v>12.33214492334151</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.56937545133646</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.704281661751071</v>
       </c>
       <c r="N17">
-        <v>5.850284830031241</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.40517957539863</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.863304898061649</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.40419369418096</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.79217436033446</v>
+        <v>25.80186559933708</v>
       </c>
       <c r="C18">
-        <v>21.3221972201525</v>
+        <v>21.80552140409518</v>
       </c>
       <c r="D18">
-        <v>4.963612696329637</v>
+        <v>5.15644818206705</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.66198802819174</v>
+        <v>20.43009092739416</v>
       </c>
       <c r="G18">
-        <v>28.54111859285204</v>
+        <v>26.08315976599995</v>
       </c>
       <c r="H18">
-        <v>4.647252288674704</v>
+        <v>4.639685300337833</v>
       </c>
       <c r="I18">
-        <v>2.768343399491463</v>
+        <v>2.795109095373745</v>
       </c>
       <c r="J18">
-        <v>9.54912889907833</v>
+        <v>9.608975014024002</v>
       </c>
       <c r="K18">
-        <v>13.85129165696729</v>
+        <v>13.02433853394309</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.03924751811864</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.283419127969188</v>
       </c>
       <c r="N18">
-        <v>6.029029430926711</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.84637281231712</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.045574598967616</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.84529072903657</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.5042656777999</v>
+        <v>25.51312070482712</v>
       </c>
       <c r="C19">
-        <v>20.31120558868581</v>
+        <v>20.92247917712325</v>
       </c>
       <c r="D19">
-        <v>4.727304084606017</v>
+        <v>4.93493630345294</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.27141077654575</v>
+        <v>21.76740269693815</v>
       </c>
       <c r="G19">
-        <v>31.43179129126335</v>
+        <v>28.45691493620458</v>
       </c>
       <c r="H19">
-        <v>3.201473403932235</v>
+        <v>3.191806739117475</v>
       </c>
       <c r="I19">
-        <v>2.779654816274359</v>
+        <v>2.804983905726594</v>
       </c>
       <c r="J19">
-        <v>10.13470086284019</v>
+        <v>10.0850004309835</v>
       </c>
       <c r="K19">
-        <v>14.99266490849193</v>
+        <v>13.88666785776098</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.6342505183818</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.009640888602014</v>
       </c>
       <c r="N19">
-        <v>6.527100890343786</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.52185402329599</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.541344904873327</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.52113690725074</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.73391995771074</v>
+        <v>25.7333319189181</v>
       </c>
       <c r="C20">
-        <v>19.3066777827564</v>
+        <v>20.09764158139967</v>
       </c>
       <c r="D20">
-        <v>4.466137349637669</v>
+        <v>4.708059297369167</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.05772295895346</v>
+        <v>23.96929002633579</v>
       </c>
       <c r="G20">
-        <v>36.31830524450377</v>
+        <v>32.68564520776233</v>
       </c>
       <c r="H20">
-        <v>1.692723365319882</v>
+        <v>1.69375316741935</v>
       </c>
       <c r="I20">
-        <v>2.910160210629749</v>
+        <v>2.915255617708124</v>
       </c>
       <c r="J20">
-        <v>11.09063274282713</v>
+        <v>10.66367032217166</v>
       </c>
       <c r="K20">
-        <v>16.87280854407134</v>
+        <v>15.2160359490497</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.52042559962988</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.19194981795796</v>
       </c>
       <c r="N20">
-        <v>7.731412207894676</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.79746626337974</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.730588833012465</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.79748087112653</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.27428009030855</v>
+        <v>27.25189475482411</v>
       </c>
       <c r="C21">
-        <v>20.2221574466612</v>
+        <v>20.96649965572733</v>
       </c>
       <c r="D21">
-        <v>4.513509899789295</v>
+        <v>4.889547031893855</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.37281213547917</v>
+        <v>24.43571710049072</v>
       </c>
       <c r="G21">
-        <v>38.37894141677119</v>
+        <v>35.72332031068862</v>
       </c>
       <c r="H21">
-        <v>1.735011256690548</v>
+        <v>1.697090593668383</v>
       </c>
       <c r="I21">
-        <v>3.172919480935663</v>
+        <v>3.13242552397132</v>
       </c>
       <c r="J21">
-        <v>11.38327494639785</v>
+        <v>9.736459709753511</v>
       </c>
       <c r="K21">
-        <v>17.17718116554049</v>
+        <v>14.97772690505884</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.21534192149072</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.25091402351887</v>
       </c>
       <c r="N21">
-        <v>8.069731694647615</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.62776347476534</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.039649067897345</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.62753366372884</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.24936863504684</v>
+        <v>28.21273643295864</v>
       </c>
       <c r="C22">
-        <v>20.83281038411992</v>
+        <v>21.53229752040259</v>
       </c>
       <c r="D22">
-        <v>4.549686147324907</v>
+        <v>5.019235574482443</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.16265240635661</v>
+        <v>24.66610362312441</v>
       </c>
       <c r="G22">
-        <v>39.59886679550858</v>
+        <v>37.67471963062778</v>
       </c>
       <c r="H22">
-        <v>1.915389430333166</v>
+        <v>1.853906494244271</v>
       </c>
       <c r="I22">
-        <v>3.336377884174296</v>
+        <v>3.265436556301213</v>
       </c>
       <c r="J22">
-        <v>11.5559134779783</v>
+        <v>9.089397492933877</v>
       </c>
       <c r="K22">
-        <v>17.33641541586586</v>
+        <v>14.77458525430605</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.98628348137892</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.26007516873286</v>
       </c>
       <c r="N22">
-        <v>8.225259530096677</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.10342849352867</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.17702728409861</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.10235836717483</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.73355848000266</v>
+        <v>27.70501737932286</v>
       </c>
       <c r="C23">
-        <v>20.48120399884525</v>
+        <v>21.22482166569636</v>
       </c>
       <c r="D23">
-        <v>4.524910901077298</v>
+        <v>4.933767801927496</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.79543563389625</v>
+        <v>24.65770811983223</v>
       </c>
       <c r="G23">
-        <v>39.04428320331637</v>
+        <v>36.57114864016895</v>
       </c>
       <c r="H23">
-        <v>1.820420178156536</v>
+        <v>1.772297897987992</v>
       </c>
       <c r="I23">
-        <v>3.24582453050695</v>
+        <v>3.190688119885036</v>
       </c>
       <c r="J23">
-        <v>11.48385869060323</v>
+        <v>9.564794592736471</v>
       </c>
       <c r="K23">
-        <v>17.29512247391978</v>
+        <v>14.95471443335559</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.15545186457409</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.31573518544966</v>
       </c>
       <c r="N23">
-        <v>8.143375713064156</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.85117085216268</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.105398244631242</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.850619807168</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.69084052930318</v>
+        <v>25.69010475288413</v>
       </c>
       <c r="C24">
-        <v>19.15211620847663</v>
+        <v>19.95492295533915</v>
       </c>
       <c r="D24">
-        <v>4.438493246453842</v>
+        <v>4.676896095888343</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.30451708209025</v>
+        <v>24.18458012790318</v>
       </c>
       <c r="G24">
-        <v>36.76217629720325</v>
+        <v>33.05538220604159</v>
       </c>
       <c r="H24">
-        <v>1.67064481273188</v>
+        <v>1.671938089400896</v>
       </c>
       <c r="I24">
-        <v>2.903714509696696</v>
+        <v>2.906254083691217</v>
       </c>
       <c r="J24">
-        <v>11.18577077610769</v>
+        <v>10.74958225660547</v>
       </c>
       <c r="K24">
-        <v>17.0819294435223</v>
+        <v>15.38485796017418</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.6402448993733</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.32826127983565</v>
       </c>
       <c r="N24">
-        <v>7.825405242066048</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.86067653324064</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.824385240333232</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.86069287393131</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.29643025839528</v>
+        <v>23.31853514023711</v>
       </c>
       <c r="C25">
-        <v>17.62895868786408</v>
+        <v>18.26241080980357</v>
       </c>
       <c r="D25">
-        <v>4.341755965190111</v>
+        <v>4.496950300463488</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.67137777677961</v>
+        <v>22.93125639364301</v>
       </c>
       <c r="G25">
-        <v>34.24451552216244</v>
+        <v>30.90545861748616</v>
       </c>
       <c r="H25">
-        <v>2.090734771856957</v>
+        <v>2.05120976897491</v>
       </c>
       <c r="I25">
-        <v>2.52554277617506</v>
+        <v>2.577614479760161</v>
       </c>
       <c r="J25">
-        <v>10.88113557072815</v>
+        <v>10.64892289322689</v>
       </c>
       <c r="K25">
-        <v>16.88313601436504</v>
+        <v>15.47705148605306</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.90202519507167</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.08786701531144</v>
       </c>
       <c r="N25">
-        <v>7.468870913507623</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.71881301323291</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.500934469103571</v>
       </c>
       <c r="Q25">
+        <v>13.71713814444199</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
